--- a/deuChatbot/research_result/version_2(2000_200).xlsx
+++ b/deuChatbot/research_result/version_2(2000_200).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20993,6 +20993,6743 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 주요 사실을 정확하게 반영하고 있으며, 실기시험의 모집단위, 종목, 준비물, 주제, 화지 크기 및 시험 시간에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 각 종목에 대한 설명이 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기시험에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조가 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.7686799529653063</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인이 모집단위로 나뉘어져 있습니다. 각 분야는 기초디자인과 사고의 전환 두 가지 종목 중 하나를 선택하게 됩니다.
+1. **기초디자인**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다.
+   - **화지크기**: 켄트지3절입니다.
+   - **시험기간**: 5시간 동안 진행됩니다.
+2. **사고의 전환**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '콜라병과 계절'과 같은 주제가 될 수 있습니다.
+   - **화지크기**: 켄트지2절입니다.
+   - **시험기간**: 5시간 동안 진행됩니다.
+이와 같이 디자인조형학과의 실기시험은 각 분야별로 기초디자인과 사고의 전환 두 가지 종목 중 하나를 선택하여 준비하고, 당일 추첨을 통해 주제가 결정되며, 5시간 동안 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 "각각의 종목별 배점 비율은 70%입니다."라는 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 일관되게 전달하고 있지만, 배점 비율에 대한 언급이 추가되어 있어 원본과의 일관성이 떨어집니다. 이로 인해 일부 일관성이 결여된 것으로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 잘 반영하고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 문장 연결이 매끄럽지 않은 부분이 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 배점 비율에 대한 추가 정보가 포함되어 있어 약간의 논리적 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 배점 비율에 대한 정보가 원본에 없기 때문에 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 좋은 점수를 받고 있습니다. 그러나 배점 비율의 추가로 인해 약간의 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 배점 비율의 추가로 인해 의미의 적절성에서 약간의 이탈이 발생했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장 연결이 매끄럽지 않아 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.804024725470965</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 기초디자인과 사고의 전환으로 나뉘며, 각각의 종목별 배점 비율은 70%입니다.
+기초디자인의 준비물은 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 잠자리와 저울을 제시하며, 화지크기는 켄트지3절이며, 시간은 5시간입니다.
+사고의 전환의 준비물 역시 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 콜라병과 계절을 제시하며, 화지크기는 켄트지2절이며, 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 대회 목록을 정확하게 나열하고 있으며, 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 모든 주요 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9549095199434304</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다.
+배드민턴(남)의 경우:
+1. 한국중·고연맹회장기전국학생선수권대회
+2. 대한배드민턴협회장기전국종별배드민턴선수권대회
+3. 전국학교대항배드민턴선수권대회
+4. 전국종별배드민턴선수권대회
+5. 전국연맹종별배드민턴선수권대회
+6. 전국체육대회
+7. 각종국제대회 (주니어팀 소속으로 출전한 대회만 인정)
+8. 광역시·도 협회장기 종별대회
+축구(남)의 경우:
+1. 춘계한국고등학교축구연맹전
+2. 추계한국고등학교축구연맹전
+3. 대한축구협회장배전국고등학교축구대회
+4. 문화체육관광부장관기전국고등학교축구대회
+5. 백운기전국고등학교축구대회
+6. 전국고등축구리그(권역별고교축구리그)
+7. 전국고등축구리그왕중왕전
+8. 무학기전국고등학교축구대회
+9. 청룡기전국고등학교축구대회
+10. 백록기전국고등학교축구대회
+11. 금강대기전국고등학교축구대회
+12. 대통령금배전국고등학교축구대회
+13. 금석배전국고등학생축구대회
+14. 부산MBC전국고등학생축구대회
+15. K리그 U18 챔피언십
+16. K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 기초디자인 실기시험의 주제와 추첨 방식에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "시각디자인, 산업디자인, 공예디자인"이라는 언급은 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 추첨 방식을 일관되게 설명하고 있지만, 추가된 디자인 분야에 대한 언급이 원본과 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 기초디자인 실기시험에 대한 정보를 직접적으로 언급하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제와 관련된 정보가 명확하게 연결되어 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있지만, 추가된 디자인 분야에 대한 언급이 정확하지 않으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 맥락을 약간 벗어나는 경향이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.8162720512688241</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 시각디자인, 산업디자인, 공예디자인의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 작성해야 합니다. 디자인조형학과의 기초디자인 실기시험에 사용되는 주제들은 다음과 같습니다.
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+각 주제는 당일 추첨을 통해 선정되며, 선정된 주제들을 연결하여 작품을 완성해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있지만, "출결 점수의 반영 비율은 0%입니다."라는 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 추가된 정보인 "출결 점수의 반영 비율은 0%입니다."는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 점수의 반영 여부에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽지만, "출결 점수의 반영 비율은 0%입니다." 부분이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 내용을 잘 이어가고 있습니다. 그러나 추가된 정보가 원본과 일치하지 않아 약간의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 점수가 반영되지 않는다는 주장은 정확하지만, 추가된 비율 정보는 원본에 명시되어 있지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 보이지만, 추가된 정보로 인해 일부 차이가 발생하여 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적합하지만, 추가된 정보가 원본과 일치하지 않아 약간의 부적합성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보가 혼란을 줄 수 있어 약간의 이해도를 떨어뜨릴 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.7598308230835742</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 출결 점수의 반영 비율은 0%입니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원 수와 전형에 대한 정보를 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 포함되어 있어 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 우수한 성능을 보이며, 전반적으로 높은 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.8368747461141359</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 인문사회과학대학의 국어국문학과 - 교직 모집단위에서 가군 수능(일반학생전형)으로 17명을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원인 28명을 정확하게 언급하고 있으며, 원문과 일치하는 정보를 제공합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주요 내용과 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 정보를 전달합니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.6438169986387555</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다. 인문사회과학대학의 계열은 인문사회이며, 모집단위는 영어영문학과 - 교직이며, 모집인원은 28명입니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.7773394548845104</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 점수를 정확하게 반영하고 있으며, 등급과 점수의 관계를 올바르게 설명하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 일관된 내용을 제공합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 수능 영어 등급에 따른 점수를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.8149338875943963</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다.
+- 등급이 1일 때, 점수는 139입니다.
+- 등급이 2일 때, 점수는 131입니다.
+- 등급이 3일 때, 점수는 123입니다.
+- 등급이 4일 때, 점수는 115입니다.
+- 등급이 5일 때, 점수는 107입니다.
+- 등급이 6일 때, 점수는 99입니다.
+- 등급이 7일 때, 점수는 91입니다.
+- 등급이 8일 때, 점수는 83입니다.
+- 등급이 9일 때, 점수는 75입니다.
+위와 같이 수능 영어 등급에 따라 점수가 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 무시하고, 지원 가능성을 언급하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없으며, 예술고 학생의 지원 가능성을 제시하는 내용이 원문과 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 예술고 학생의 지원 가능성에 대한 정보를 제공하지만, 원문에서 명확히 언급된 지원 불가능성을 간과하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 정확성에 문제가 있어 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다르며, 예술고 학생의 지원 가능성에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 의미적으로는 관련된 내용을 다루고 있지만, 원문과의 불일치로 인해 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기 쉽지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.6666814917657904</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원 가능 여부는 지원 가능한 모집단위와 계열에 따라 다릅니다. 주어진 정보를 바탕으로, 예술고 학생은 다음과 같은 모집단위에서 지원할 수 있습니다:
+1. **미디어커뮤니케이션학과** - 이 과정은 예술과 관련된 분야로, 미디어 커뮤니케이션에 대한 이해가 필요합니다.
+2. **영화학과** - 영화학과는 영화 제작 및 관계된 예술 분야와 밀접한 연관성이 있습니다.
+하지만, 나군 학생부교과 농어촌학생전형은 주로 인문사회과학, 공학 등 특정 계열에 한정되어 있는 경우가 많습니다. 따라서 예술고 학생이 지원할 수 있는 모집단위는 제한적일 수 있습니다.
+추가적으로, 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원하려면 해당 모집단위의 지원 자격 및 제출 서류를 충족해야 합니다. 예를 들어, 미디어커뮤니케이션학과나 영화학과에서는 일반적으로 학교생활기록부와 같은 교육적 성과가 중요하게 평가됩니다.
+따라서, 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있는지 확인하기 위해서는 해당 모집단위의 공식 정보를 참조하거나, 대학 입학처에 문의하는 것이 가장 정확한 방법입니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 "남은 268~271cm"라는 부분은 사실과 다릅니다. 원본 텍스트에서는 4등급 기록이 218~221cm로 명시되어 있으며, 이 부분이 잘못 기재되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. "남은 268~271cm"라는 기록은 원본과 상충하며, 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 4등급 기록과 배점에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, "여은"이라는 표현이 어색하게 사용되었습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 연결되어 있지만, "남은 268~271cm"라는 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답의 기록 부분에서 잘못된 정보가 포함되어 있어 정확성이 낮습니다. 원본 텍스트의 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 양호하지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 정확하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8925846895311339</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 남은 268~271cm, 여은 218~221cm이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 출결 반영 비율을 0%로 잘못 제시하고 있으며, 이는 원본 텍스트의 12%와 상충합니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순되는 정보를 제공하고 있습니다. 원본의 출결 반영 비율과 생성된 응답의 비율이 일치하지 않으므로 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 출결 반영 비율에 대한 질문에 답하고 있지만, 잘못된 정보를 제공하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전반적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 품질 차원에서 모두 낮은 점수를 받았으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 응답은 주제와 관련이 있지만, 잘못된 정보를 제공하여 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.664440773351791</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과의 출결 반영 비율은 0%입니다. 이는 전형요소 반영비율에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 학과 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완벽하게 반영하고 있으며, 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.9452619784692259</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 세부사항(디자인조형학과의 세부 전공)을 포함하고 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 날짜와 관련된 정보가 일치합니다. 추가된 정보도 원본의 맥락을 해치지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제인 실기고사 일정에 직접적으로 관련이 있으며, 추가된 전공 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.4984429177029142</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024. 01. 17.(수)에 있습니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가 정보를 제공하는 링크도 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저 기준이 없다는 내용을 잘 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련된 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4002666534934045</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 정보는 없습니다. 더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do) 웹사이트를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과에 대한 정보를 전혀 제공하지 않고 있으며, 오히려 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 사실과 완전히 상반됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 담고 있습니다. 원본 텍스트는 신설된 학과 목록을 제공하고 있지만, 생성된 응답은 그러한 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 신설된 학과에 대한 정보를 제공하는 반면, 생성된 응답은 정보가 없다고 주장하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 신설된 학과에 대한 정보를 제공하지 않기 때문에 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 정보가 없다고 주장하는 것은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부적절함으로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.393195941883098</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과 정보는 제공된 내용에서 확인할 수 없습니다. 추가적인 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 보시거나, 대학 입학처에 직접 문의하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 서류와 면접의 비율이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.8701968630710516</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)에서는 서류가 70%이고, 면접이 30%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과로 '한의예과'를 언급하고 있으나, 원본 텍스트에서는 '의료·보건·생활대학', '공과대학', 'ICT융합공과대학'이 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트에 명시된 학과와는 다른 학과를 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 질문에 답하고 있으나, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 정확하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으나, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7244359777201834</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 한의예과입니다. 이는 한의예과에서 수학(미적분/기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여한다는 정보가 있습니다. 다른 학과에서는 일반적으로 수능 성적을 반영하는 방식이지만, 가산점은 한의예과에서만 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과 상충합니다. 원문에서는 수능 성적을 100% 반영한다고 했지만, 생성된 응답에서는 각 영역별로 25%씩 반영한다고 잘못 설명하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서 수능 성적을 100% 반영한다고 했으나, 생성된 응답에서는 25%씩 반영한다고 하여 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하지만, 원문에서 요구하는 100% 반영이라는 핵심 정보를 잘못 전달하고 있어 관련성은 있지만 정확하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 일관되지만, 원문과의 내용 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 잘못된 정보를 포함하고 있습니다. 수능 성적을 100% 반영한다고 한 원문과는 정반대의 내용을 담고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 원문과 관련이 있지만, 잘못된 정보로 인해 적절하지 않습니다. 원문의 의도를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조로 되어 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7292735004294651</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+- **반영 영역**: 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목)
+- **반영 비율**: 각 영역별로 25%를 반영합니다.
+따라서 총점은 다음과 같이 계산됩니다:
+\[ \text{총점} = (\text{국어 표준점수} \times 0.25) + (\text{수학 표준점수} \times 0.25) + (\text{영어 등급점수} \times 0.25) + (\text{탐구 표준점수} \times 0.25) \]
+이와 같이 가군에서는 수능 성적을 반영합니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 가군 실기고사 날짜에 대한 정보를 제공하지만, 원본 텍스트에 명시된 날짜(2024년 1월 16일) 외에 추가적인 날짜(2024년 1월 17일)를 포함하고 있어 사실과 다릅니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 가군 실기고사가 1월 16일에 진행된다고 명시하고 있지만, 생성된 응답은 1월 17일에 대한 정보를 추가하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기고사 날짜에 대한 정보를 제공합니다. 그러나 추가된 정보가 원본 텍스트와 일치하지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 날짜를 나열하고 있지만, 원본 텍스트의 핵심 정보와의 연결이 약해 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 잘못된 날짜를 포함하고 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와의 일치성이 떨어지며, 사실성, 일관성, 정확성 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 잘못된 정보를 포함하고 있어 의미의 일관성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.6913508124341782</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같은 날짜에 진행됩니다:
+- 레저스포츠학과와 태권도학과의 실기고사는 2024. 01. 16.(화)입니다.
+- 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과의 실기고사는 2024. 01. 17.(수)입니다.
+이 정보가 도움이 되길 바랍니다. 추가로 궁금한 점이 있으시면 https://ipsi. deu. ac. kr/main. do를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 '패션디자인학과'가 제외된 모집단위라고 잘못 언급하고 있으며, 이는 원문에 명시된 '한의예과, 디자인조형학과, 체육학과, 경기지도학과'와 상충합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상반된 정보를 제공하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 응답은 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 흐름을 가지고 있으나, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 응답은 원문에 대한 사실적 정확성이 전혀 없으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 관련이 있지만, 잘못된 정보로 인해 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.5384551215826217</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 일반학생전형에서 **패션디자인학과**는 제외된 모집단위입니다. 이 정보는 제공된 문맥에서 명확히 언급되어 있습니다. 추가로 궁금한 사항이 있으시다면 더 자세하게 설명해 주세요.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원문과 일치하며, 수능 최저기준이 적용되지 않는다는 사실을 정확하게 반영하고 있습니다. 추가적으로 전형요소 반영비율에 대한 언급도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 모순이 없습니다. 모든 다군 전형에 대한 설명도 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제기된 주제와 직접적으로 관련이 있으며, 수능 최저기준에 대한 정보를 명확하게 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 각 문장이 서로 잘 이어져 있습니다. 전체적으로 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 정보와 정확히 일치하며, 사실에 기반한 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.7894960009826012</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 전형요소 반영비율에서 확인할 수 있습니다. 다군 학생부종합(재직자전형) - 정원외, 다군 학생부종합(조기취업형계약학과전형) - 정원외 등 모든 다군 전형의 경우 수능 최저기준이 없음을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학부에서 학과로 분리된 모든 학과를 올바르게 나열하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않고 일관된 내용을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 학부에서 학과로 분리된 학과에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽고 일관성이 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.7862590904243307</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 여러 학과들이 학부에서 학과로 분리되었습니다. 예를 들어, 기계자동차로봇부품공학부는 기계공학과, 로봇·자동화공학과, 자동차공학과로 분리되었습니다.
+다음은 2024학년도에 학부에서 학과로 분리된 일부 학과입니다:
+1. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+2. 신소재공학부 → 신소재공학과, 고분자나노공학과
+3. 건설공학부 → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+4. 화학환경공학부 → 화학공학과, 환경공학과, 응용화학과
+5. 바이오응용공학부 → 의생명공학과, 바이오의약공학과, 식품공학과
+6. 디자인공학부 → 인간공학과, 제품디자인공학과
+7. 산업융합시스템공학부 → 산업경영빅데이터공학과
+8. 창의소프트웨어공학부 → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+9. 전기전자통신공학부 → 전기공학과, 전자공학과
+이러한 변경사항은 2024학년도부터 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일과 시간을 정확하게 반영하고 있으며, 추가적인 정보(인터넷 접수)를 포함하고 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 마감일과 시간에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.846015950337327</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에서 원서접수(인터넷) 마감일은 2024. 01. 06.(토)까지이며, 마감 시간은 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 학생부종합 전형의 서류와 면접 비율 변경에 대한 정확한 정보를 제공하고 있습니다. 그러나, 다른 전형의 변화에 대한 언급이 없어서 완전한 정보는 아닙니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 학생부종합 전형의 비율 변경에 대한 정보는 일관되지만, 전체 전형 변화에 대한 정보가 부족하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 핵심 주제인 전형 요소 변화에 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬우나, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 명확한 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 학생부종합 전형의 비율 변경에 대한 정확한 정보를 제공하지만, 다른 전형에 대한 정보가 누락되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 전체 전형 변화에 대한 정보가 부족하여 다소 아쉬운 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 다른 전형에 대한 언급이 없어 의미의 완전성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우나, 추가적인 정보가 부족하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.6613050253865725</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 반영 비율이 변경된 전형은 학생부종합입니다. 이전의 학생부종합에서는 서류(학생부)와 면접의 비율이 각각 70%와 30%였으나, 2024학년도에는 서류(학생부)가 60%, 면접이 40%로 변경되었습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중이 70%라고 명시된 원문과 상충합니다. 응답에서는 실기 비중이 35%라고 잘못 언급하고 있으며, 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 실기 비중에 대한 정보가 서로 모순됩니다. 원문에서는 70%라고 명시되어 있지만, 응답에서는 35%로 잘못 기술되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 잘못된 정보로 인해 전체적인 관련성이 떨어집니다. 실기 비중에 대한 잘못된 정보가 포함되어 있어, 원문에서 요구하는 핵심 정보를 제대로 전달하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나쁘지 않지만, 잘못된 정보로 인해 논리적인 일관성이 부족합니다. 실기 비중에 대한 잘못된 정보가 응답의 흐름을 방해하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 일치하지 않으며, 실기 비중에 대한 잘못된 정보를 포함하고 있습니다. 이는 정확성 점수에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 잘못된 정보로 인해 의미적으로 부적절합니다. 실기 비중에 대한 잘못된 해석이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 잘못된 정보로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.7458156605310716</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 다음과 같습니다.
+- 레저스포츠학과와 태권도학과에서는 실기고사 전형성적 상위자로 선발되며, 실기는 35%의 비중을 차지합니다.
+- 이외의 모든 모집단위에서는 수능이 100%의 비중을 차지하고, 실기는 반영되지 않습니다.
+따라서, 일반적으로 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 35%입니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 세부 전공을 정확하게 나열하고 있으며, 추가적인 설명도 원본의 내용과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 주제와 잘 맞아떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.7257249020834411</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도에 신설되는 동의대학교의 라이프융합학부는 세부 전공으로 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학을 포함하고 있습니다. 이 세부 전공들은 학생들이 다양한 삶의 영역에서 창업과 비즈니스를 통해 가치를 창출할 수 있는 능력을 기르는 데 초점을 맞추고 있습니다.
+더 자세한 정보를 얻기 위해서는 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나 대학 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'라는 잘못된 정보를 포함하고 있으며, 원본 텍스트에 명시된 '체육학과'를 누락했습니다. 또한, 실기고사 종목에 대한 정보도 원본 텍스트에 포함되어 있지 않으므로 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. '태권도학과'는 원본에 언급되지 않았고, '체육학과'는 누락되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있으나, 잘못된 학과가 포함되어 있어 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결되어 있으나, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. '태권도학과'의 언급이 원본과의 연결을 약화시킵니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. '체육학과'가 누락되고 '태권도학과'가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 원본 텍스트와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.5901544794532584</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 레저스포츠학과와 태권도학과입니다. 이 두 학과에서는 제자리 멀리뛰기 또는 Z-런이라는 종목을 실시하며, 각각 35%의 배점을 받습니다.
+따라서, 레저스포츠학과나 태권도학과를 지원하는 학생들은 해당 실기고사를 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 구체적인 학과 목록을 제공하지 않고 있으며, 이는 원본 텍스트와 상충합니다. 원본 텍스트에는 명확하게 지원 가능한 학과가 나열되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 실기/실적 위주 전형에 대한 정보가 부정확합니다. 원본 텍스트는 특정 학과를 나열하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 실기/실적 위주 전형에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 아닙니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 지원 가능한 학과에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 일반적인 정보는 제공하지만, 원본 텍스트의 맥락과는 맞지 않으며, 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.4480824833067492</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주전형인 학과는 구체적으로 명시되어 있지 않습니다. 하지만 일반적으로 실기/실적 위주전형은 예술, 음악, 체육 등 실력이 요구되는 분야에 해당됩니다. 정확한 정보를 얻으려면 공식 홈페이지인 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 대학 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 라이프융합학부가 제공하는 전공에 대한 정보를 정확하게 반영하고 있으며, 신설되는 학부에 대한 설명도 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공되는 전공 목록과 학부의 신설에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 학부의 전공과 신설에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.8199721747274689</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설되는 라이프융합학부는 다음과 같은 전공을 제공합니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학 
+- 라이프생활문화학
+이 학부는 2024년도에 신설되며, 이 세 가지 전공을 통해 학생들이 창업과 투자, 뷰티 산업, 그리고 다양한 생활 문화 분야에서의 경영 및 기술 역량을 배울 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 잘못 해석하고 있습니다. 응답에서는 일반 고등학교 학생이 지원할 수 없다고 언급하고 있지만, 원문에서는 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다고 명확히 설명하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다고 명시하고 있지만, 생성된 응답에서는 일반 고등학교 학생이 지원할 수 없다고 주장하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있지만, 원문에서 제공하는 정보와는 관련이 적습니다. 원문은 특수목적고등학교 출신 학생의 지원 가능성에 대한 정보인데, 생성된 응답은 일반 고등학교 학생에 대한 정보로 초점을 맞추고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어가 아닌 중국어로 작성되어 있어, 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 관련성이 떨어져서 전체적인 일관성이 부족합니다. 주제가 바뀌면서 흐름이 약간 어색해질 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 원문에서는 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다고 명시하고 있지만, 생성된 응답은 이를 부정하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 의미를 전달하지 못하고 있으며, 주제가 바뀌어 원문의 맥락과 맞지 않습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 한국어 사용자에게는 중국어로 작성되어 있어 이해하기 어려울 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.5112108879971062</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>你的问题是关于是否可以作为普通高中学生申请동의大学的一般入学标准。根据提供的信息，东义大学的特殊招生类型包括农林地区学生和成人学习者（在职人员），但没有提到普通高中的学生可以直接申请一般入学标准。
+因此，如果你是普通高中的学生，你不能直接通过一般入学标准来申请东义大学。你需要查看是否有其他适合你的招生类型，例如农林地区学生或成人学习者（在职人员）等。
+如果还有疑问，建议访问东义大学的官方网站 https://ipsi. deu. ac. kr/main. do 以获取更详细的信息。</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트에서 명확하게 언급된 내용을 부정확하게 해석하고 있습니다. 원본 텍스트는 동의대 나군 전형에서 가장 많이 모집하는 학과가 중어중국학과와 신소재공학과라고 명시하고 있지만, 생성된 응답은 이 정보를 부정하고 다른 학과에 대한 추론을 제시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트의 핵심 사실을 무시하고 다른 학과에 대한 정보를 제시함으로써 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 없는 학과에 대한 정보를 포함하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관계가 명확하지 않아 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 정확한 정보를 제공하지 않습니다. 원본 텍스트의 내용을 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 이해하고 있으며, 적절한 의미 전달이 이루어지지 않고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.5988420341146513</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과에 대한 정보는 제공된 문단에서 직접적으로 언급되어 있지 않습니다. 하지만, 전형 요소와 관련된 세부사항을 통해 추론할 수 있습니다.
+제공된 정보 중에서는 스마트호스피탈리티학과, 미래형자동차학과, 소프트웨어융합학과 등이 정원외 학과로 언급되어 있으며, 각 학과의 전형요소 반영비율은 동일하게 서류 60%와 면접 40%입니다. 이는 여러 학과가 비슷한 조건으로 모집되고 있음을 나타냅니다.
+따라서, 가장 많이 모집하는 학과를 단정적으로 말하기는 어렵지만, 현재 정보로는 스마트호스피탈리티학과, 미래형자동차학과, 소프트웨어융합학과 등이 주요하게 모집되고 있는 것으로 보입니다. 정확한 가장 많이 모집하는 학과를 알기 위해서는 동의대학교 입학처 웹사이트나 공식 안내서를 참조하시거나, 직접 문의하시는 것이 좋습니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 완전히 반대하는 내용을 담고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 특수목적고등학교 출신자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원이 가능하다고 주장합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 질문에 대한 답변을 시도하지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문과의 불일치로 인해 주제와의 연관성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원문과의 불일치로 인해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 의미적으로는 응답이 질문에 대한 답변을 시도하고 있지만, 잘못된 정보로 인해 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.6367031617761523</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 동의대학교에서 나군 학생부교과(농어촌학생전형)로 지원할 수 있습니다. 하지만 지원 자격은 농어촌 지역에 소재한 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 동안 본인 및 부모가 농어촌 지역에 거주한 자여야 합니다.
+따라서, 특수목적고등학교 학생이라면 해당 조건을 충족하는 경우 지원이 가능합니다. 만약 자세한 사항이나 추가적인 정보가 필요하다면 https://ipsi. deu. ac. kr/main. do를 참조하시거나 동의대학교 입학처에 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 해당 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 평균 성적을 제시하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문이 합격자 평균 성적에 대한 정보가 없다고 명시한 반면, 생성된 응답은 구체적인 성적을 제시하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 하였고, 생성된 응답은 그와는 전혀 다른 내용을 담고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성을 고려할 때, 이 점수는 다소 낮게 평가될 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하지 않는 정보를 포함하고 있으며, 이는 사실적으로 부정확합니다. 원문이 명시적으로 정보를 제공하지 않는다고 하였기 때문에 정확성 점수는 최하점입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모든 면에서 매우 낮은 점수를 받습니다. 따라서 전반적인 품질도 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 원문에서 요청한 정보와는 전혀 다른 내용을 담고 있습니다. 이는 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.5498434608522778</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부의 합격자들의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 426.80입니다.
+이 데이터는 수능에서의 성적을 나타내며, 이 값은 해당 학과에 지원한 학생들의 평균적인 성적을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상충되는 잘못된 정보를 제공합니다. 
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 완전히 모순되며, 원문에서 제공된 정보와 일치하지 않습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원문에서 요청한 정보와 관련이 없으며, 원문에서 언급된 내용과는 전혀 다른 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관성을 유지하고 있으나, 원문과의 관계에서 비일관성을 보입니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 다르며, 원문에서 제공된 정보와 상충합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 차원에서 낮은 점수를 받으며, 원문과의 관계에서 부정확하고 비일관적입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 문맥에 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있으나, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.5056439890443277</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 일부 정확한 정보를 포함하고 있지만, 최초 합격자 등록 날짜와 충원 합격자 발표 및 등록에 대한 정보가 원본 텍스트와 일치하지 않으며, 추가된 정보가 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있어 일관성이 부족합니다. 특히 등록 관련 정보와 발표 일정이 서로 충돌합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하고 있지만, 원본 텍스트에 포함되지 않은 추가적인 정보가 포함되어 있어 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 표현되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 구조가 있지만, 정보의 흐름이 원본 텍스트와 일치하지 않아 일관된 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 낮습니다. 특히 등록 관련 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과 일치하지 않는 정보가 포함되어 있어 일부 부적절한 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 일부 정보가 혼란을 줄 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.820976964580117</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>2024년 합격자 발표 일정은 다음과 같습니다.
+- 최초 합격자 발표 및 등록 : 2024년 2월 2일 금요일 오후 14시
+- 최초 합격자 등록 : 2024년 2월 7일 수요일부터 2월 13일 화요일까지 (은행 마감 시간 내)
+- 충원 합격자 1차 발표 및 등록 : 각각 2024년 2월 14일 수요일 오전 9시와 오후 16시
+- 충원 합격자 2차 발표 및 등록 : 각각 2024년 2월 15일 목요일 오전 9시와 오후 16시
+- 충원 합격자 3차 이후 발표 및 등록 : 개별 전화 통보를 통해 안내되며, 2024년 2월 15일 목요일부터 2월 20일 화요일까지 (오후 18시까지)
+각 합격자 발표는 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행이며, 등록금 고지서에 기재된 정보를 참고해주세요.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접 일정에 대한 구체적인 날짜가 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 "2024. 01. 20.(토)"라는 날짜가 언급되어 있습니다. 따라서 사실과 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 면접 일정에 대한 구체적인 정보를 제공하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 면접 일정에 대한 질문에 대한 답변으로 보이지만, 원본 텍스트의 핵심 정보를 무시하고 있습니다. 웹사이트를 참조하라는 내용은 관련성이 낮으며, 원본 텍스트의 주요 내용을 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약간 손상되었습니다. 그러나 문장 간의 연결은 비교적 잘 이루어져 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 면접 일정에 대한 정확한 정보를 제공하지 않고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 저조합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하지 못하고 있습니다. 면접 일정에 대한 구체적인 정보를 제공하지 않으므로 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3796300287059711</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 면접일정에 대한 구체적인 날짜가 포함되어 있지 않습니다. 면접 일정과 관련된 자세한 내용은 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나 입학처에 문의해 주세요. 그곳에서 가장 정확하고 최신 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 반영하고 있지만, "2024학년도에 대한 한의예과의 최저학력기준 정보가 제공된 문서에서 명확히 확인할 수 없습니다."라는 문장은 다소 모호하게 느껴질 수 있습니다. 그러나 전반적으로 사실에 부합합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "다른 전형 유형이나 학과에서는 수능최저기준이 없음이라고 언급되어 있지만"이라는 부분은 원문에서 언급되지 않은 내용으로, 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 깊으며, 한의예과의 최저학력 기준에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 일부 문장은 더 명확하게 연결될 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하며, 정확한 내용을 전달하고 있습니다. 다만, 추가적인 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 적절한 맥락을 유지하고 있습니다. 다만, 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5734741172365423</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 한의예과의 최저학력기준 정보가 제공된 문서에서 명확히 확인할 수 없습니다. 다른 전형 유형이나 학과에서는 수능최저기준이 없음이라고 언급되어 있지만, 한의예과에 대한 특별한 최저학력기준은 언급되지 않았습니다.
+더 자세한 정보를 얻으시려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해보시거나, 대구대학교 입학처로 직접 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 명확히 반영하지 않고 있으며, 다른 대학의 기준에 대한 일반적인 설명을 포함하고 있습니다. 이는 원문과의 일치성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 원문과 상충하는 내용을 포함하고 있습니다. 다른 대학의 기준에 대한 언급은 일관성을 해치고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 최저학력 기준에 대한 정보를 제공하려고 하지만, 동의대학교에 대한 구체적인 정보가 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 중복된 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 주제가 명확하게 연결되지 않아 일관성이 떨어집니다. 동의대학교에 대한 정보가 부족하여 흐름이 매끄럽지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확히 반영하지 않으며, 다른 대학의 기준에 대한 일반적인 설명이 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교와 관련된 정보가 부족하여 의미적으로 적절하지 않은 부분이 있습니다. 그러나 일반적인 정보는 적절하게 전달되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 동의대학교에 대한 구체적인 정보가 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5703582380837869</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도 수능 최저학력 기준에 대한 정보는 제공된 자료에서 확인되지 않았습니다. 수능 최저학력 기준은 대학마다 다르며, 정시 모집 시에도 학교별로 달라질 수 있습니다. 따라서 정확한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화 문의 등을 통해 확인하시길 바랍니다. "https://ipsi.deu.ac.kr/main.do" 링크에서 더 자세한 정보를 찾을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 및 2차 충원합격자 발표 일정을 정확하게 반영하고 있지만, 3차 이후의 일정에 대한 정보가 원본 텍스트와 다르게 "개별 전화 통보로 이루어집니다"라고 언급되어 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 일관되게 제공하지만, 3차 이후의 일정에 대한 설명이 원본과 상충하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 충원합격자 발표 일정에 대한 질문에 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 일정이 명확하게 나열되어 있습니다. 그러나 3차 이후 일정에 대한 설명이 원본과 다르기 때문에 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 1차 및 2차 발표 일정은 정확하지만, 3차 이후 일정에 대한 정보가 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 3차 이후 일정에 대한 부정확성으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 3차 이후 일정에 대한 설명이 부적절하여 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우나, 3차 이후 일정에 대한 잘못된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.909970501892838</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 다음과 같습니다.
+1차 충원합격자 발표는 2024년 2월 14일(수) 오전 9시입니다.
+2차 충원합격자 발표는 2024년 2월 15일(목) 오전 9시입니다.
+이후의 일정은 개별 전화 통보로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 1차, 2차, 3차 이후의 발표 일정이 명시되어 있지만, 생성된 응답은 전혀 다른 날짜와 시간을 제시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 원본의 발표 일정과 생성된 응답의 내용은 서로 관련이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 충원합격자 발표 일정에 대한 정보인데, 생성된 응답은 다른 날짜와 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본과 관련이 없기 때문에 전체적인 이해도는 낮습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.6684395524823792</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 추가합격자 발표 일정은 2024년 2월 2일 금요일 오후 2시입니다. 이 정보는 합격자 발표 및 등록금 납부 최초 합격자 발표 항목에서 얻을 수 있습니다. 자세한 내용은 입학 안내 홈페이지를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하지 않고 있으며, 추가 모집에 대한 구체적인 정보가 없다고 언급하고 있습니다. 원본 텍스트는 추가 모집이 이루어진다고 명확히 설명하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 추가 모집이 있을 것이라고 명시하고 있지만, 생성된 응답은 그러한 정보가 없다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 핵심 정보를 놓치고 있습니다. 원본 텍스트의 내용에 대한 직접적인 언급이 부족하여 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어져서 전체적인 맥락에서의 유창성은 다소 부족합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 원본 텍스트의 내용을 반영하지 않기 때문에 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 내용을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 적절한 의미 전달이 이루어지지 않았습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.3900958228115166</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>附加招生吗？根据提供的信息，没有直接提到是否有额外的招生计划。如果有具体的招生计划或政策变更，请访问以下网站以获取最新信息：https://ipsi. deu. ac. kr/main. do
+如果需要了解最新的招生信息和计划，建议直接访问该网址查看官方公告。</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 주요 정보를 포함하고 있으며, 지원 자격과 제출 서류에 대한 설명이 포함되어 있습니다. 그러나 일부 세부 사항이 누락되거나 다르게 표현되어 있어 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 일부 내용이 다르게 표현되거나 추가적인 정보가 포함되어 있어 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 평생학습자전형에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 주요 주제를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 부분에서 흐름이 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 일부 세부 사항이 누락되거나 다르게 표현되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 유용한 정보를 제공합니다. 그러나 일부 세부 사항에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 적절한 의미를 전달하고 있습니다. 그러나 일부 표현에서 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.6274478781080408</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인 학습자를 대상으로 하는 입학 전형입니다. 이 전형에서는 고교 졸업(예정)자, 검정고시 출신자, 외국고교 졸업(예정)자를 대상으로 합니다.
+1. **고교 졸업(예정)자**:
+   - 제출서류: 고교 학교생활기록부 1부
+   - 온라인 제공 동의자가 필요하지 않으며, 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능합니다.
+2. **검정고시 출신자**:
+   - 제출서류: 1) 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 2) 검정고시 성적증명서 1부
+   - 온라인 제공 동의자가 필요하지 않으며, 교육기관, 공공기관, 무인민원발급기, 인터넷 발급 가능합니다.
+3. **외국고교 졸업(예정)자**:
+   - 제출서류: 1) 공증받은 외국고교 졸업(예정)증명서 1부
+   - 2) 공증받은 외국고교 성적증명서 1부
+   - 3) 학교생활기록부 대체 서류 (제출 여부 선택 가능)
+   - 모든 서류는 원본 제출을 원칙으로 합니다. 단, 원본 재발급이 불가능한 유일본의 경우 원본대조필이 가능합니다.
+평생학습자전형은 성인 학습자의 특성을 고려하여 평가되며, 공동체역량, 학업역량, 전공적합성 등의 영역에서 평가됩니다. 이에 대한 세부 평가 기준과 방법을 잘 이해하고 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 구체적인 내용을 추가했지만, 원본 텍스트에서 언급된 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"라는 핵심 정보를 포함하지 않고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 추가 정보를 포함하고 있으며, 원본의 핵심 내용을 무시하고 있습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 지원자격에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용과는 다소 동떨어져 있습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 항목으로 나뉘어 있지만, 원본 텍스트와의 연결성이 부족하여 일관된 흐름이 떨어집니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 사실을 누락하고 있으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와의 일치성이 부족하고, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 따라서 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으며, 명확하게 전달됩니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.7249263122598955</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 고교 졸업(예정)자:
+   - 제출서류는 고교 학교생활기록부 1부입니다.
+   - 학생부 온라인 제공 동의자는 제출할 필요가 없습니다.
+2. 검정고시 출신자:
+   - 제출서류는 
+     1. 검정고시 합격증서 사본 또는 합격증명서 1부
+     2. 검정고시 성적증명서 1부입니다.
+   - 온라인 제공 동의자는 제출할 필요가 없습니다.
+3. 외국고교 졸업(예정)자:
+   - 제출서류는 
+     1. 공증받은 외국고교 졸업(예정)증명서 1부
+     2. 공증받은 외국고교 성적증명서 1부
+     3. 학교생활기록부 대체 서류(제출여부 선택 가능)입니다.
+   - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부해야 합니다.
+4. 재직자:
+   - 학력서류는 고교 학교생활기록부 1부를 제출합니다.
+위와 같은 자격을 갖춘 지원자는 평생학습자전형에서 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사의 장소에 대한 일반적인 정보를 제공하지만, 원본 텍스트에서 명시된 대기실 및 입실시간에 대한 구체적인 정보는 포함되어 있지 않다. 또한, "각 대학에서 이루어집니다"라는 표현은 원본 텍스트의 내용과 일치하지 않으며, 정확한 정보를 제공하지 않는다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 있다. 원본 텍스트는 특정 날짜와 시간에 대한 정보를 제공하는 반면, 생성된 응답은 장소에 대한 일반적인 설명을 하고 있어 일관성이 부족하다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사와 관련된 정보를 제공하지만, 원본 텍스트의 핵심 내용인 대기실 및 입실시간에 대한 정보는 포함되어 있지 않다. 따라서 관련성은 있지만, 원본 텍스트의 주요 포인트를 직접적으로 다루지 않는다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없다. 그러나 약간의 어색함이 느껴질 수 있는 부분이 있다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어진다. 원본 텍스트의 정보와 관련된 내용이 부족하다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 잘못된 정보가 포함되어 있다. 원본 텍스트의 특정 날짜와 시간에 대한 정보가 누락되었다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있다. 따라서 의미적으로 적절하다고 보기 어렵다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.5448650940029343</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>실기고사의 장소는 주로 각 대학에서 이루어집니다. 하지만 정확한 장소는 해당 대학의 공식 웹사이트를 참조하거나, 입시 관련 서류에서 확인해야 합니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 를 방문하여 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 체육학과의 실기고사 종목에 대한 내용을 담고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 사실적으로도 부정확합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 주제가 다르기 때문에 전체적으로는 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.2201559671804471</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 세 가지 종목으로 나뉘어 있습니다:
+1. 제자리 멀리뛰기 (240점, 24%)
+2. 메디신볼 던지기 (243점, 23%) 
+3. Z-런 (230점, 23%)
+따라서 체육학과를 지원하려면 이 세 가지 종목 중 하나를 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 하지 않는다는 사실을 완전히 반대하는 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 전화 통보가 이루어지지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 통보를 받을 것이라고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원본의 핵심 내용과는 다르게 잘못된 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약해집니다. 전화 통보에 대한 잘못된 정보가 포함되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6285932166947088</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 개별 전화 통보를 받으실 것입니다. 이 일정은 2024년 2월 15일(목) 오후 7시부터 2024년 2월 20일(화) 오후 6시까지입니다.
+만약 자세한 내용이 궁금하시다면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 경찰행정학과에 대한 정보가 없다는 점을 언급하고 있으며, 원본 텍스트의 내용을 대체로 잘 반영하고 있습니다. 그러나 "각 학과의 수시모집 결과와 같은 최신 정보를 확인할 수 있습니다."라는 부분은 원본 텍스트에서 명시된 내용이 아니므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 경찰행정학과에 대한 정보가 없음을 강조하고 있습니다. 그러나 "각 학과의 수시모집 결과"라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 경찰행정학과에 대한 정보가 없다는 점을 잘 전달하고 있습니다. 또한, 관련 웹사이트를 언급하여 독자가 필요한 정보를 찾을 수 있도록 안내하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "제공된 정보에서 경찰행정학과에 대한 내용은 없습니다."라는 문장은 조금 더 자연스럽게 표현될 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족한 부분이 있어 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있습니다. 그러나 원본 텍스트에 없는 추가 정보를 포함하고 있어 완전한 정확성은 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 원본 텍스트와 잘 연결되어 있습니다. 그러나 일부 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 추가된 정보가 원본 텍스트와의 의미적 일치를 약간 해치는 경향이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉽습니다. 그러나 일부 문장이 더 간결하게 표현될 수 있어 이해도를 높일 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.7411129266695694</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 경찰행정학과에 대한 내용은 없습니다. 경찰행정학과의 관련 정보를 찾으려면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 보세요. 해당 사이트에서는 각 학과의 수시모집 결과와 같은 최신 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 일부 전형에서는 수능 응시 여부와 관계없이 지원이 가능하다고 주장하고 있으나, 이는 원문과 명백히 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 전혀 없습니다. 원문은 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있는데, 생성된 응답은 이를 반박하는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 원문에서 제시한 핵심 정보와는 다르게 전개되고 있습니다. 원문이 명확한 규정을 제시하는 반면, 생성된 응답은 여러 전형에 대한 설명으로 주제를 확장하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 설명이 포함되어 있지만, 원문과의 연결이 약해 논리적 흐름이 다소 부족합니다. 원문과의 관계가 명확하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 원문과의 관계가 전혀 없기 때문에 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 원문과 상충하는 내용을 포함하고 있어 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5090370847042585</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시에서 수능을 응시하지 않아도 일부 전형에서는 지원이 가능합니다. 예를 들어, 농어촌학생전형과 평생학습자전형, 성인학습자전형, 재직자전형인 경우 수능 응시 여부에 관계없이 지원할 수 있습니다.
+특히, 농어촌학생전형의 경우 6년 과정이나 12년 과정에 따라 지원 자격이 다르며, 서류 제출 내용도 다릅니다. 따라서 해당 전형의 구체적인 지원 자격과 제출 서류를 확인해야 합니다.
+또한, 평생학습자전형, 성인학습자전형, 재직자전형은 일반적으로 수능 응시 여부에 관계없이 지원이 가능합니다. 하지만 이들 전형의 경우 각각의 전형명과 모집단위, 모집인원 등에 따라 지원 자격과 서류 제출 내용이 다를 수 있으므로, 정확한 정보는 해당 대학의 웹사이트나 입시 안내서에서 확인해야 합니다.
+더 궁금하신 점이 있다면 https://ipsi. deu. ac. kr/main. do 를 참조하시거나 대학 입시 관련 웹사이트를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 정시 지원 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 명시된 "고교유형별 지원자격" 표에 대한 언급이 없고, 일반적인 경우에 대한 설명으로 인해 일부 사실이 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부분 일치하지만, 정시 지원 가능성에 대한 구체적인 정보가 부족하여 일관성이 떨어집니다. 특히, 특정 대학의 요건에 대한 언급이 원본과 다르게 나타납니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 핵심 정보인 정시 지원 가능성에 대한 직접적인 답변이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 문제가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 구체적인 사실을 완전히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하나, 원본 텍스트의 맥락을 완전히 반영하지 못하여 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하여 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.5897379466988861</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>정시 모집에 지원하려면 해당 대학의 정시 모집 요건을 확인해야 합니다. 주어진 정보로는 정확히 어떤 대학을 가리키는지 명시되어 있지 않아, 일반적인 경우를 설명드리겠습니다.
+일반적으로 고등학교 졸업 후 10년이 지났다면, 해당 학생은 이미 성인으로 분류되며, 평생학습자 또는 재직자의 자격을 갖추게 됩니다. 따라서 정시 모집에 지원하는 대신, 학생부종합전형이나 다른 특별전형을 통해 지원할 수 있습니다.
+특히 나군의 경우, 학생부종합(평생학습자전형) 또는 재직자전형에서 지원 자격이 주어지므로, 해당 전형에 지원하는 것이 적절할 수 있습니다. 
+만약 특정 대학이나 전형에 대한 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do"를 참조하시거나, 해당 대학의 입학처 웹사이트를 방문하여 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.7816203893707542</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 일정을 살펴보겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일(화) 입니다.
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수)부터 6일(토)까지, 마감 시간은 각 날짜별로 오후 6시까지입니다. 원서 접수 사이트는 [http://ipsi. deu. ac. kr](http://ipsi.deu.ac.kr) 또는 [http://www. uwayapply. com](http://www.uwayapply.com) 입니다.
+3. **서류 제출 (필요한 경우)**: 2024년 1월 3일(수)부터 12일(금)까지, 마감 시간은 오후 5시까지입니다. 서류 제출 방법은 접수 사이트에서 우편 발송용 표지를 출력하여 부착하거나 직접 우편으로 보내는 것입니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일(화)입니다. 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일(수)입니다. 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표: 2024년 2월 2일(금) 오후 2시입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 13일(화)까지, 은행 마감 시간 내에 이루어집니다.
+   - 충원 합격자 발표 및 등록 (1차): 2024년 2월 14일(목) 오전 9시입니다. 
+   - 충원 합격자 발표 및 등록 (2차): 2024년 2월 15일(목) 오전 9시부터 오후 4시까지입니다.
+   - 충원 합격자 발표 및 등록 (3차 이후): 2024년 2월 15일(목) 오후 7시부터 20일(화) 오후 6시까지, 개별 전화 통보를 통해 안내됩니다.
+이상이 동의대학교 정시 일정입니다. 자세한 내용은 입학 안내 홈페이지에서 확인하시기 바랍니다. 필요하다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8489582588751795</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정을 살펴보겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일(화) 입니다.
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수)부터 6일(토)까지, 마감 시간은 각 날짜별로 오후 6시까지입니다. 원서 접수 사이트는 http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com 입니다.
+3. **서류 제출 (필요한 경우)**: 2024년 1월 3일(수)부터 12일(금)까지, 마감 시간은 오후 5시까지입니다. 서류 제출 방법은 접수 사이트에서 우편 발송용 표지를 출력하여 부착하거나 직접 우편으로 보내는 것입니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일(화)입니다. 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일(수)입니다. 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표: 2024년 2월 2일(금) 오후 2시입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 13일(화)까지, 은행 마감 시간 내에 이루어집니다.
+   - 충원 합격자 발표 및 등록 (1차): 2024년 2월 14일(수) 오전 9시입니다. 
+   - 충원 합격자 발표 및 등록 (2차): 2024년 2월 15일(목) 오전 9시부터 오후 4시까지입니다.
+   - 충원 합격자 발표 및 등록 (3차 이후): 2024년 2월 15일(목) 오후 7시부터 20일(화) 오후 6시까지, 개별 전화 통보를 통해 안내됩니다.
+이상이 동의대학교 정시 모집 일정입니다. 자세한 내용은 입학 안내 홈페이지에서 확인하시기 바랍니다. 필요하신 경우 https://ipsi. deu. ac. kr/main. do 를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 미응시자가 지원할 수 없다는 사실을 명확히 반영하지 않고 있으며, 수능 미응시자도 지원 가능한 전형에 대한 정보가 없다고 언급하고 있습니다. 이는 원문과 상충되는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있으며, 수능 미응시자가 지원할 수 없다는 원문의 주장을 부정하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 수능 미응시자에 대한 지원 가능성에 대한 잘못된 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결되어 있으나, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 수능 미응시자에 대한 정보가 명확하지 않아 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 명시된 사실과 크게 다르며, 수능 미응시자가 지원할 수 없다는 점을 잘못 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다. 그러나 유창성과 관련성은 어느 정도 유지되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 수능 미응시자에 대한 잘못된 해석을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 응답은 전반적으로 이해할 수 있으나, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 명확성에서 다소 부족합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.8160010166823256</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 주어진 정보로는 확인할 수 없습니다. 주어진 내용에서는 수능(일반학생전형)과 나군 학생부종합(조기취업형계약학과전형)에 대한 자세한 정보가 제공되어 있지만, 수능 미응시자도 지원 가능한 전형에 대해 언급된 것은 없습니다. 
+수능 미응시자의 경우 일반적으로 특별전형이나 일부 정원 외 전형을 통해 지원이 가능하지만, 동의대학교의 해당 정보는 주어진 내용에서 확인할 수 없습니다. 더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 직접 문의하는 것이 좋습니다.
+더 궁금하신 점이 있으시다면 https://ipsi.deu.ac.kr/main.do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격에 대한 정보를 부정확하게 전달하고 있습니다. 원문에서는 36명까지 충원 합격이 이루어졌다고 명시되어 있지만, 생성된 응답에서는 이 정보를 누락하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 충원 합격 인원에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 원문에서 제공된 정보와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있으나, 충원 합격 인원에 대한 구체적인 정보가 빠져 있어 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원문과의 연결성이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 구체적인 사실(충원 합격 인원)을 누락하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 응답의 질이 평균적이며, 특히 사실성과 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 대체로 일치하지만, 구체적인 정보가 누락되어 있어 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 정보의 누락으로 인해 완전한 이해가 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.6047593775429645</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 전년도 전자공학과의 충원 합격 관련 내용이 없습니다. 이와 관련된 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시거나, 입학관리팀에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호에 대한 정보를 전혀 제공하지 않고 있으며, 이는 원본 텍스트의 사실과 완전히 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 전화번호를 명확히 제시하고 있지만, 생성된 응답은 전화번호가 언급되지 않았다고 주장하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 없습니다. 전화번호를 제공하는 대신, 정보가 없다고 언급하고 있어 주제와 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 정보가 전혀 포함되어 있지 않아 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전화번호에 대한 정보가 없다고 주장하는 것은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부적절성으로 인해 전체적인 이해에 방해가 됩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6609798205390304</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到东义大学入学处的电话号码。如果您需要该信息，可以访问以下网站以获取最新数据：https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 핵심 내용을 왜곡하고 있습니다. 원본에서는 전화 연락이 두절되면 등록 의사가 없는 것으로 간주된다고 명시하고 있지만, 생성된 응답에서는 학생이 홈페이지에서 합격 사실을 확인할 수 있다고 언급하고 있습니다. 이는 원본의 내용을 잘못 해석한 것입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 전화 연락이 되지 않으면 등록 포기자로 처리된다고 명시하고 있으나, 생성된 응답은 다른 방법으로 합격 사실을 확인할 수 있다고 제안하고 있습니다. 이는 서로 상충하는 정보입니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 관련이 있지만, 주제에서 벗어난 부분이 있습니다. 원본은 전화 연락이 되지 않을 경우의 처리 방법에 대해 설명하고 있지만, 생성된 응답은 홈페이지 조회와 같은 다른 방법에 초점을 맞추고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 보입니다. 원본의 주제를 명확히 반영하지 않기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본의 사실과 크게 다릅니다. 원본의 핵심 사실인 전화 연락이 두절되면 등록 포기자로 처리된다는 내용을 무시하고 다른 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 원본 텍스트의 핵심 내용을 잘못 전달하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본의 맥락과는 다소 어긋나는 내용이 포함되어 있습니다. 원본의 의도를 제대로 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 편입니다. 그러나 원본의 핵심 내용을 반영하지 않기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.5109792679681451</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원 합격자에 대한 개별 전화 통보 시 전화 통화가 되지 않는 경우, 해당 학생은 홈페이지에서 개별 조회를 통해 합격 사실을 확인할 수 있습니다. 또한 고지서는 홈페이지에서 출력하거나 입학관리팀에서 직접 수령 가능하며, 등록장소는 학교 지정은행으로 등록금을 납부해야 합니다.
+만약 이러한 방법들도 통하지 않는다면, 입학관리팀에 연락하여 상황을 설명하고 처리 방법을 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 잘 반영하고 있으며, 6년 과정과 12년 과정에 따른 서류를 구분하여 설명하고 있습니다. 그러나 '부모가 사망한 경우'와 '부모가 이혼한 경우'에 대한 세부 사항이 약간 간략하게 설명되어 있어, 원본 텍스트의 모든 세부 사항을 완전히 포함하지는 않았습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 서류를 나열하고 있으며, 정보의 흐름이 자연스럽습니다. 다만, 일부 세부 사항이 생략되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 모든 정보를 적절히 다루고 있습니다. 주제에 대한 직접적인 언급이 이루어져 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 과정에 따른 서류를 잘 정리하고 있습니다. 그러나 약간의 세부 사항이 누락되어 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 주요 서류와 제출 조건을 정확하게 설명하고 있습니다. 그러나 일부 세부 사항이 생략되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 모두 좋은 점수를 받고 있습니다. 그러나 일부 세부 사항의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 약간의 세부 사항이 생략되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 완전한 이해 가능성은 부족합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7174500416280288</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정에 따라 다르게 제출해야 할 서류가 있습니다.
+### 6년 과정
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+### 12년 과정
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이 외에, 부모가 사망한 경우는 사망 증명서를 추가로 제출해야 합니다. 또한, 부모가 이혼한 경우에는 친권자의 혼인관계증명서와 본인의 기본증명서를 추가로 제출해야 합니다.
+위 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 정확하게 반영하고 있으며, 추가적으로 '6년 과정' 서류에 대한 언급이 포함되어 있습니다. 그러나 원본 텍스트에서 '6년 과정'에 대한 정보는 제공되지 않았기 때문에 이 부분은 다소 부정확할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, '6년 과정' 서류에 대한 언급이 원본 텍스트에 없기 때문에 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 높은 관련성을 가집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있어 완벽한 유창성 점수는 아닙니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 '6년 과정'에 대한 추가 정보가 원본과 연결되지 않아 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, '6년 과정'에 대한 언급이 원본 텍스트에 없기 때문에 완전한 정확성 점수는 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, '6년 과정'에 대한 언급이 원본과 일치하지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, '6년 과정'에 대한 추가 정보가 혼란을 줄 수 있어 완전한 이해 가능성 점수는 아닙니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8097851662259825</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정으로 지원 시 다음과 같은 서류가 필요합니다.
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이 외에, 중·고등학교 재학 시 부모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년과정' 서류를 제출할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 언급하고 있으며, 2024학년도에 신설되지 않았다는 점도 정확하게 반영하고 있습니다. 그러나 "저소득 기회균등 전형"이라는 표현이 다소 혼동을 줄 수 있습니다. 
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 기회균등 전형이 존재하지 않는다는 점에서 일관성을 유지하고 있지만, "저소득 기회균등 전형"이라는 표현이 원문과의 일관성을 약간 떨어뜨립니다. 
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 기회균등 전형에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 자연스럽습니다. 다만, "저소득 기회균등 전형"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "저소득 기회균등 전형"이라는 표현이 전체적인 흐름에 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원문에서 제공된 정보와 일치하며, 기회균등 전형이 존재하지 않는다는 점을 정확하게 반영하고 있습니다. 다만, "저소득 기회균등 전형"이라는 표현이 정확한 정보 전달에 방해가 될 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 약간의 혼란을 줄 수 있는 표현이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원문과의 의미적 일치가 높지만, "저소득 기회균등 전형"이라는 표현이 다소 부적절하게 사용되어 의미 전달에 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 특정 표현이 혼란을 줄 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.6301366197569037</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집에서는 저소득 기회균등 전형이 신설되지 않았습니다. 현재의 정보로는 저소득 기회균등 전형이 포함되어 있지 않습니다.
+만약 추가적인 변경사항이나 자세한 내용을 알고 싶다면, 제공된 링크를 통해 공식 웹사이트에서 확인해 보시기 바랍니다: [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)
+이 정보는 2024학년도 기준이며, 실제 모집요강이나 변경사항은 공식 웹사이트를 통해 확인하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저등급의 절사 여부에 대한 정보가 없다는 원문 내용을 왜곡하고 있습니다. 원문에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있지만, 생성된 응답은 2.5 등급이 절사되지 않는다고 단정짓고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 부족합니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 2.5 등급이 절사되지 않는다고 주장하여 모순을 일으킵니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 관련이 있지만, 원문에서 제공된 정보의 정확성을 왜곡하고 있습니다. 그러나 질문의 주제와 관련된 정보를 제공하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 일관성이 떨어집니다. 원문에서 제공된 정보와의 연결이 부족하여 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 내용을 포함하고 있어 정확성이 낮습니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 원문과의 관계가 약해 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원문과의 불일치로 인해 의미 전달이 왜곡되었습니다. 원문에서의 맥락을 고려할 때 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원문과의 불일치로 인해 혼란스러울 수 있는 부분이 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6967530015859761</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급이 나오더라도 절사는 아닌 것으로 이해됩니다. 즉, 2.5 등급은 그대로 반영되어 평균산출이 이루어집니다. 수능 최저등급에서 사탐 2 과목의 평균산출을 할 때는 실수로 나온 결과를 그대로 사용합니다.
+만약 특정 모집단위에서는 절사가 적용되는 경우가 있다면, 해당 모집단위의 특별한 지침이 명시되어 있을 것입니다. 하지만 일반적으로 2.5 등급은 2.5로 평균산출에 반영됩니다.
+만일 추가 정보가 필요하거나 특정 모집단위의 특별한 규정이 있는 경우에는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나 관계된 학교 측과 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 발표 일정에 대한 정보가 부정확합니다. 첫 번째 발표일이 2024년 2월 15일로 잘못 기재되어 있으며, 두 번째 발표에 대한 정보도 잘못되었습니다. 원본 텍스트에 따르면 첫 번째 발표는 2024년 2월 14일이고, 두 번째 발표는 2024년 2월 15일입니다. 
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 발표 일정이 잘못 기재되어 있어 원본과의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5  
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 정시 충원 합격자 발표에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 발표 일정에 대한 정보가 부정확하여 정확성이 낮습니다. 원본 텍스트의 사실과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부는 잘 수행했지만, 사실성과 정확성에서 큰 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4  
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 다만, 발표 일정의 부정확성으로 인해 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 발표 일정의 오류로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.7917885515827963</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차로 이루어집니다. 첫 번째 발표는 2024년 2월 15일(목) 오전 9시에 있으며, 두 번째 발표는 같은 날 오후 9시부터 시작합니다. 마지막으로 세 번째 발표는 2024년 2월 20일(화)까지 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 e-비즈니스학과의 수능 성적에 대한 정보를 제공하고 있으며, 4.6이라는 성적이 좋은 성적이라는 점을 언급하고 있습니다. 그러나 추가 합격 가능성에 대한 정보는 모집 인원 및 경쟁률에 따라 달라진다고 하여, 원본 텍스트의 세부 사항을 완전히 반영하지는 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 모집 인원 및 경쟁률에 대한 언급이 추가되어 있어 원본의 정보와는 약간의 차이가 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, e-비즈니스학과의 정시 전형에 대한 정보와 관련된 내용을 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있어 완벽한 유창성 점수는 아닙니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 있어 완전한 일관성은 다소 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적에 대한 정확한 정보를 제공하고 있으며, 추가 합격 가능성에 대한 설명도 적절합니다. 그러나 원본 텍스트의 세부 사항을 완전히 반영하지는 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 적절한 정보를 제공합니다. 다만, 추가된 정보가 원본의 맥락과 완전히 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 문장이 다소 복잡할 수 있어 완벽한 이해 가능성 점수는 아닙니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.4724270564387005</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 e비즈니스학과의 정시 전형에 대한 모집 인원 및 경쟁률 등의 자세한 내용이 없어 확실한 답변을 드리기 어렵습니다. e비즈니스학과의 경우, 수능 성적이 4.6이라는 점은 좋은 성적입니다만, 추가 합격 가능성은 정시 전형에 대한 모집 인원 및 경쟁률 등 여러 요인에 따라 결정됩니다.
+더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 "https://ipsi. deu. ac. kr/main. do" 링크에서 정시 전형에 대한 자세한 내용을 확인해 보시는 것이 좋습니다. 특히, e비즈니스학과의 모집 인원 및 경쟁률 등을 파악하면 더 정확한 판단이 가능할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급과 비교하여 정시 등급 5.3이 합격 가능성이 높다는 주장은 다소 과장된 것으로 보입니다. 원본 텍스트는 5.3 등급이 합격하기 어려울 수 있다고 명시하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 정시 등급 5.3이 합격 가능성이 높다는 주장은 원본 텍스트의 내용과 상충합니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 경쟁률과 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 평균 등급과 합격 가능성에 대한 언급이 부족합니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 정시 등급 5.3에 대한 해석이 원본 텍스트와 다릅니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 평균 이하입니다. 사실성과 일관성에서 부족함이 있으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과 다소 어긋나는 부분이 있습니다. 그러나 전반적으로 의미는 잘 전달됩니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 정보가 잘 전달되어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6798947830808779</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률을 확인해보겠습니다.
+ICT융합공과대학의 e비즈니스학과는 다음과 같은 정보가 있습니다:
+- 모집인원: 5명
+- 지원인원: 11명
+- 경쟁률: 2.20
+이와 비교했을 때, 정시 등급 5.3은 상당히 높은 등급입니다. e비즈니스학과의 경쟁률이 2.20이라는 점을 고려하면, 정시 등급 5.3의 지원자는 최초 합격 가능성은 매우 높습니다.
+하지만, 정확한 최초합격 가능성을 확정하기 위해서는 동의대학교 e비즈니스학과의 최종 합격자 명단을 확인해야 합니다. 만약 해당 정보가 제공되지 않으면, 2024학년도 동의대학교 e비즈니스학과의 경쟁률 및 지원자의 등급 분포를 참고하여 추정할 수 있습니다.
+만약 더 자세한 정보나 최신 데이터가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문해보시는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 38번 학생의 합격 가능성을 판단하기 위해 여러 요소를 고려해야 한다고 언급하고 있지만, 원문에서 명시된 "예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다"라는 핵심 사실을 간과하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공합니다. 원문은 예비 38번의 합격 가능성이 낮다고 명확히 언급하고 있지만, 생성된 응답은 여러 요소를 고려해야 한다고 하여 모호한 정보를 제공합니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 38번 학생의 합격 가능성을 판단하기 위한 요소들을 제시하고 있어 관련성이 높습니다. 그러나 원문에서 제공하는 구체적인 정보와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 원문과의 연결이 부족하여 논리적 흐름이 다소 약합니다. 원문에서 제시한 정보와의 연관성이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실을 왜곡하고 있으며, 예비 38번의 합격 가능성에 대한 명확한 정보를 제공하지 않습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다. 전반적으로 원문과의 관계가 약해 다차원 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문에서 제시한 핵심 사실을 무시하고 있어 의미적으로 완전하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 원문과의 관계가 약해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.6204554767054298</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>38번 학생이 e비즈니스학 전공에 예비합격 가능한지 판단하기 위해서는 몇 가지 요소를 고려해야 합니다. 
+1. **전형 유형**: e비즈니스학 전공을 지원하는 전형 유형(예: 나군, 가군 등)이 무엇인지 확인해야 합니다.
+2. **성적 및 평균 등급**: 국어, 수학, 영어, 한국사, 사회 등의 과목별 성적과 평균 등급을 확인해야 합니다.
+3. **서류 제출**: 서류 제출 유형(예: 학생부교과, 학생부종합 등)에 따른 요구 사항을 충족하고 있는지 확인해야 합니다.
+위의 정보를 바탕으로 판단하기 위해서는 구체적인 전형 유형과 지원 자격, 평균 등급 등을 확인해야 합니다. 만약 위의 정보가 부족하다면, 공고문이나 입학 안내 홈페이지(https://ipsi. deu. ac. kr/main. do)를 참조하여 자세한 내용을 확인해 보세요.
+특히, e비즈니스학 전공에 대한 모집단위와 지원 자격 등이 명확하게 기재되어 있는 공고문이나 입학 안내 홈페이지에서 가장 정확한 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 관련된 정보를 제공하고 있으며, 정시 성적 3.44에 대한 합격 가능성을 언급하고 있습니다. 그러나 "정시 모집에서 합격하기 위해서는 3.8 이상의 성적을 보유하고 있어야 한다"는 정보는 출처 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 출처 텍스트의 내용을 일부 반영하고 있지만, 정시 성적 기준에 대한 정보가 추가되어 있어 일관성이 떨어질 수 있습니다. 특히, 정원 내 모집 인원과 관련된 정보는 출처 텍스트에 포함되어 있지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 출처 텍스트의 주요 주제를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 있어 전체적인 일관성에 약간의 영향을 미칠 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 출처 텍스트의 정보를 기반으로 하고 있지만, 추가된 정보가 정확한지에 대한 확인이 필요합니다. 특히, 정시 성적 기준에 대한 정보는 출처에 명시되어 있지 않으므로 정확성에 약간의 의문이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 긍정적인 평가를 받을 수 있습니다. 그러나 일부 정보의 추가로 인해 약간의 부정확성이 존재합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 출처 텍스트의 의미와 맥락에 잘 부합하고 있으며, 전반적으로 적절한 의미를 전달하고 있습니다. 다만, 추가된 정보가 맥락에 맞는지에 대한 검토가 필요합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6694366205475878</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정원 내 모집 인원은 110명이며, 가군의 일반 학생 모집 인원은 0명입니다. 이는 간호학과에서 가장 높은 경쟁률을 보이는 군으로 볼 수 있습니다.
+정시 성적 3.44를 가지고 간호학과에 합격 가능성은 매우 낮습니다. 간호학과의 입학 기준 점수는 대체적으로 높은 편이며, 정시 모집에서 합격하기 위해서는 3.8 이상의 성적을 보유하고 있어야 합니다.
+하지만, 학생부 종합전형에서는 다른 평가 요소들이 고려되므로, 간호학과에 지원하는 경우 학생부와 면접 등에서 좋은 평가를 받는 것이 중요합니다. 특히 공동체역량, 학업역량, 전공적합성 등의 영역에서 뛰어난 성과를 보여주면 도움이 될 수 있습니다.
+결론적으로 정시 성적이 3.44인 경우 간호학과에 합격하기는 어려울 것으로 예상됩니다. 하지만, 다른 평가 요소들을 잘 준비한다면 학생부 종합전형을 통해 합격 가능성은 있을 수 있습니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 전문가와 상담하는 것이 좋습니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu.ac.kr/main.do 를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 간호학과의 경쟁률, 충원 합격자 수, 평균 점수 및 표준 편차에 대한 정보를 포함하고 있지만, 원본 텍스트에서 제공된 정보와는 관련이 적고, 정시 등급 2.52에 대한 해석이 부정확합니다. 원본 텍스트는 2.52가 평균 등급보다 높다고 언급했으나, 생성된 응답은 이를 부정하는 내용을 담고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 2.52의 성적이 합격 가능성이 높다고 명시했으나, 생성된 응답은 이 성적이 낮다고 주장하며 상반된 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률과 충원 합격자 수에 대한 정보를 제공하지만, 원본 텍스트의 핵심 질문인 정시 성적 2.52의 합격 가능성에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 각 문장이 서로 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 특히, 2.52의 성적에 대한 해석이 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다. 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있습니다. 
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 내용의 일관성이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6025393659629396</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 경쟁률은 6.59이며, 충원 합격자는 37명입니다. 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48이고, 표준 편차는 4.66입니다.
+현재 제시된 성적인 2.52는 표준 정규분포에서의 점수로 해석해야 합니다. 이 점수가 동의대학교 간호학과의 평균 점수와 비교되어야 하며, 표준 편차를 고려하여 경쟁률을 판단해야 합니다.
+평균 점수 353.48에서 2.52는 상대적으로 낮은 점수입니다. 표준 편차가 4.66이므로, 이 점수는 평균보다 약간 낮은 위치에 있습니다. 그러나 경쟁률이 높고 충원 합격자 수가 많기 때문에, 단순히 성적이 낮다고 해서 불합격할 확률이 높습니다.
+결론적으로, 현재 제시된 성적만으로는 정확한 예측을 하기는 어렵습니다. 그러나 경쟁률과 충원 합격자 수를 고려하면, 이 점수로는 최종 합격하기 어려울 것으로 보입니다. 더 자세한 정보나 추가적인 지원 방법은 동의대학교 입학처에 문의하시거나, 전문가와 상담을 받으시는 것이 좋습니다.
+더 궁금하신 사항이 있으시면 https://ipsi. deu. ac. kr/main. do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 제공하고 있으며, 3.7의 정시 성적이 평균 등급보다 낮다는 점을 언급하고 있습니다. 그러나 "실기와 면접 등 다양한 요소"에 대한 언급은 원문에 명시되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 대체로 일관되며, 정시 성적이 간호학과의 평균 등급보다 낮다는 점을 강조하고 있습니다. 그러나 추가적인 요소들(실기, 면접 등)에 대한 언급이 원문에 포함되어 있지 않아 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과의 입학 요건에 대한 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 문장이 길어져서 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 실기와 면접에 대한 언급이 원문에 없으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하지만, 추가적인 요소에 대한 언급이 원문에 없으므로 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6416547142251658</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 정시 성적만으로 간호학과에 합격하기는 어렵습니다. 간호학과는 보통 높은 평균 점수를 요구하며, 특히 실기와 면접 등 다양한 요소가 포함된 전형을 통해 선발합니다.
+2024학년도의 경우, 정시모집군 변경사항에 따르면 간호학과는 특정 정시모집군에 속해 있습니다. 이에 따라 학생부종합 평가영역인 공동체역량 ㅣ 학업역량 ㅣ 전공적합성 중에서 학업역량 부분이 중요하게 작용합니다.
+따라서, 다음과 같은 요소들을 고려해야 합니다:
+1. **학업역량**: 정시 성적이 높은 것은 긍정적인 점수입니다. 하지만 간호학과는 실기와 면접 등도 포함되므로, 학업성적 외에도 실기능력과 의사소통 능력이 중요합니다.
+2. **전공적합성**: 지원자의 전공적합성을 증명할 수 있는 활동이나 경험을 서류에 첨부해야 합니다.
+따라서, 3.7의 정시 성적만으로는 간호학과에 합격하기 어렵습니다. 추가적인 준비와 활동이 필요합니다. 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화로 문의하는 것이 좋습니다.
+더 궁금하신 점이 있으시면 "https://ipsi.deu.ac.kr/main.do" 링크를 통해 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 간호학과의 정시 성적 기준에 대한 정보를 제공하고 있으며, 원본 텍스트의 주요 사실을 반영하고 있습니다. 그러나 구체적인 합격 기준에 대한 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 2024학년도에 대한 정보와 2023학년도 기준을 혼합하여 언급하고 있어 일관성이 떨어집니다. 특히, 2023학년도 기준을 언급하면서 2024학년도에 대한 불확실성을 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 정시 모집요강에 대한 정보를 제공하고 있습니다. 질문에 대한 직접적인 답변을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 2023학년도와 2024학년도 정보를 혼합하여 제시함으로써 약간의 혼란을 초래할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 2024학년도에 대한 구체적인 합격 기준이 명시되지 않아 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 2023학년도와 2024학년도 정보를 혼합하여 제시함으로써 약간의 의미적 혼란이 발생할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 정보의 혼합으로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.59154024666751</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집요강을 확인해보겠습니다.
+1. **정시 성적 기준**: 정확한 정시 성적 기준은 공지된 정보에서 확인해야 합니다. 일반적으로 대학마다 합격기준이 다르므로, 동의대학교 간호학과의 정시 합격기준을 확인해보세요.
+2. **성적 반영 방식**: 2024학년도 동의대학교는 학생부 교과 성적을 반영하는 전형이 있습니다. 학생부 교과 성적은 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사교과 등 전 과목 석차등급 평균으로 산출됩니다.
+3. **성적 반영 기준**: 2024학년도 동의대학교 간호학과의 정시 모집요강에 따르면 학생부 교과 성적은 합격기준이 될 수 있습니다. 하지만, 정확한 합격기준 점수는 공지된 정보에서 확인해야 합니다.
+4. **합격 가능성**: 현재 제공된 정보로는 2023학년도의 학생부 교과 성적 기준을 참고할 수 있지만, 2024학년도의 정확한 합격기준 점수를 확인해야 합니다. 예를 들어, 2023학년도의 학생부 교과 성적 기준이 2.58 이상이라면, 2.58이라는 성적은 합격 가능성에 영향을 줄 수 있습니다.
+**추천 사항**: 
+- 동의대학교 간호학과의 2024학년도 정시 모집요강을 확인하세요.
+- 학생부 교과 성적 기준, 면접 등 전형 요소를 종합적으로 고려해보세요.
+더 자세한 정보는 https://ipsi.deu.ac.kr/main.do에서 공지사항이나 모집요강을 확인하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 예비 7번의 합격 가능성에 대한 명확한 정보를 제공하지 않고, 모집인원에 대한 불확실성을 언급하고 있습니다. 이는 원본 텍스트의 명확한 사실과 상충합니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 그 가능성에 대한 불확실성을 강조하고 있습니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 예비 7번의 합격 가능성을 높이기 위한 조언을 제공하고 있어 관련성이 있지만, 원본 텍스트의 핵심 정보에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 조언을 나열하고 있지만, 원본 텍스트와의 연결이 약해 전체적인 논리적 흐름이 다소 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 예비 7번의 합격 가능성에 대한 명확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어진 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용이지만, 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.6186738580804971</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 답변이 어렵습니다. 게임공학과의 모집인원은 공개되지 않았거나, 현재까지의 모집 및 합격자 정보가 없기 때문입니다.
+게임공학과에 붙을 확률을 높이려면 다음과 같은 준비를 해보세요:
+1. 수능 성적을 최대한 높여주세요.
+2. 관련 교내 활동이나 프로젝트 경험을 쌓으세요.
+3. 자기소개서와 면접 답변을 미리 연습해 보세요.
+더 정확한 정보를 얻기 위해서는 대학 입시 홈페이지(https://ipsi. deu.ac.kr/main.do)를 확인하거나, 학교 관계자에게 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 등급 4.16이 좋은 점수라는 점과 추가 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나, 원문에서 제공된 구체적인 평균 등급과 관련된 정보는 포함되어 있지 않아 일부 사실이 누락되었습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 4.16이라는 점수가 좋은 점수라고 언급하며, 추가 합격 가능성에 대한 논의를 이어갑니다. 다만, 원문에서 제시된 평균 등급과 비교하는 부분이 부족하여 약간의 일관성 결여가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 정보를 제공하고 있으며, 추가 합격 가능성에 대한 논의가 주제를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 명확한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, 원문에서 제공된 구체적인 데이터와의 연결이 부족하여 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 4.16이라는 점수가 좋은 점수라는 사실을 정확하게 반영하고 있지만, 원문에서 제공된 구체적인 평균 등급과 비교하는 정보가 부족하여 정확성에서 약간의 누락이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성에서 좋은 점수를 받고 있습니다. 그러나 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 잘 이루어져 있으며, 주제에 적합한 내용을 담고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 표현으로 작성되어 있어, 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.7158858114451878</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 등급은 상당히 좋은 점수입니다. 하지만 정시 전형에서 동의대학교 게임공학과에 추가 합격이 가능한지 확실한 답변을 드리기 위해서는 몇 가지 정보가 필요합니다.
+1. **동의대학교 게임공학과의 모집인원 및 지원 인원**: 이 정보를 통해 경쟁률을 파악할 수 있습니다.
+2. **수능 등급 평균 및 표준 편차**: 동의대학교 게임공학과에서 최근 몇 년간의 수능 등급 평균과 표준 편차를 확인하면, 4.16이라는 점수가 어느 정도 경쟁력을 가진지 알 수 있습니다.
+3. **경쟁률 및 충원 합격자**: 이 정보는 현재 동의대학교 게임공학과에서 얼마나 많은 지원자가 경쟁하고 있는지를 알려줍니다.
+위와 같은 정보를 바탕으로 판단해야 합니다. 하지만 일반적으로 4.16이라는 수능 등급은 상당히 좋은 점수이므로, 추가 합격 가능성은 높다고 볼 수 있습니다. 그러나 정확한 답변을 드리기 위해서는 동의대학교 게임공학과의 모집인원 및 지원 인원 등의 정보가 필요합니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)에 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 성적 기준에 대한 구체적인 정보를 제공하지 않고, 일반적인 조언을 하고 있습니다. 원본 텍스트에서 제공된 평균 성적에 대한 정보는 언급되지 않았고, 이는 사실적 정확성을 떨어뜨립니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 구체적인 성적 기준에 대한 정보가 부족하여 일관성이 떨어집니다. 원본 텍스트의 성적 평균을 반영하지 않고 일반적인 정보만 제공하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 성적 기준에 대한 질문에 대해 관련된 정보를 제공하려고 하지만, 원본 텍스트의 구체적인 데이터와는 거리가 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트의 구체적인 내용과 연결되지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 성적 기준에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 구체적인 사실을 반영하지 않아 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 원본 텍스트의 구체적인 내용과는 다소 차이가 있습니다. 그러나 전반적으로 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 언어로 작성되어 있습니다. 다만, 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.5855006578970454</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과를 지원하려면 정시 모집의 성적 기준을 충족해야 합니다. 하지만 주어진 정보만으로는 해당 학과의 정확한 최저성적 기준이 무엇인지 알 수 없습니다. 일반적으로 경영정보학과의 정시 모집에서 요구하는 성적 기준은 각 대학에서 다르게 설정할 수 있습니다.
+따라서, 경영정보학과의 정시 모집에 대한 최신 성적 기준을 확인하기 위해서는 동의대학교의 공식 웹사이트를 참조하거나 입학처와 직접 문의해야 합니다. 해당 정보는 매년 변경될 수 있으므로 가장 최신의 정보를 얻기 위해 공식 웹사이트나 입학처에 문의하는 것이 좋습니다.
+https://ipsi. deu. ac. kr/main. do 링크를 통해 동의대학교의 공식 웹사이트를 방문하여 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 4.2라는 점수가 경영정보학과의 최소 합격 기준인 4.0을 충족한다고 주장하지만, 원본 텍스트에서는 4.2가 평균 등급보다 낮아 합격 가능성이 낮다고 명시하고 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본에서는 4.2가 낮은 성적이라고 언급했으나, 생성된 응답은 합격 가능성이 있다고 주장합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 다소 비효율적입니다. 그러나 여전히 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으나, 원본 텍스트와의 불일치로 인해 일관된 흐름이 부족합니다. 원본의 주장을 반영하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 4.2라는 점수가 합격 가능성이 있다고 주장하는 것은 잘못된 정보입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답이 원본 텍스트와 일치하지 않기 때문에 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 잘못된 사실에 기반하고 있어 전체적인 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6607155021374541</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 경영정보학과의 최소 합격 기준인 4.0을 충족하고 있으므로, 최초합격자로서 등록이 가능한 것으로 보입니다.
+하지만, 정확한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화로 문의하는 것이 가장 확실합니다. "https://ipsi.deu.ac.kr/main.do" 를 방문하여 더 자세한 정보를 확인하실 수 있습니다.
+또한, 최초합격자뿐만 아니라 충원 합격자도 등록이 가능하므로, 6위까지의 후보순위에 포함되어 있으면 더욱 확실합니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 잘 반영하고 있으며, 5.33이라는 성적이 낮은 점수임을 언급하고 있습니다. 그러나, "국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사교과 전 과목 석차등급 평균이 높은 학생들이 선호된다"는 부분은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 5.33이라는 성적이 낮은 점수임을 강조하고 있으며, 합격 가능성이 낮다는 점에서도 일치합니다. 다만, 추가된 정보가 원문에 없는 내용이므로 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 핵심인 합격 가능성에 대한 정보를 잘 다루고 있으며, 관련된 조언과 방법을 제시하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 주제에 대한 흐름이 명확합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전반적으로 정확하지만, 원문에 없는 추가 정보가 포함되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 차원에서 잘 수행되었지만, 일부 정보의 부정확성으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.5872434844472728</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>5.33이라는 성적을 가지고 동의대학교 경영정보학과 일반학생전형에 합격 가능성은 매우 낮습니다. 동의대학교의 정시 모집에서는 수능 점수와 교과 성적이 함께 고려되며, 평균적으로 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사교과 전 과목 석차등급 평균이 높은 학생들이 선호됩니다. 5.33이라는 점수는 대체로 중하위권을 의미하며, 경쟁률이 매우 높은 일반학생전형에서는 낮은 점수로 합격하기 어렵습니다.
+만약에 합격하고자 한다면, 다음과 같은 방법들을 고려해 볼 수 있습니다:
+1. **특기사항 서류 제출**: 특기사항을 잘 준비하여 서류평가에서 높은 점수를 받는 것이 중요합니다.
+2. **추천서 작성**: 선생님이나 부모님의 추천서가 도움이 될 수 있습니다.
+3. **면접 준비**: 면접에서도 좋은 성적과 특기사항을 바탕으로 자기소개와 학업계획 등을 잘 준비해야 합니다.
+하지만, 이는 여전히 낮은 확률을 의미합니다. 정시 모집에서는 높은 점수를 가진 학생들이 선호되므로, 다른 방법들을 고려해 보는 것이 좋습니다. 예를 들어, 재수를 계획하거나, 특별전형 등을 통해 입학할 수 있는 기회를 찾아보는 것도 좋은 선택일 수 있습니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 를 방문하여 공식 홈페이지에서 제공하는 정보를 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 바이오응용공학부의 최초등록자 데이터와 관련된 정보가 아닌, 다른 모집단위와 관련된 정보를 포함하고 있습니다. 또한, 제공된 성적(3.33)이 바이오응용공학부의 평균 등급보다 낮다고 언급했지만, 원본 텍스트에서는 합격 가능성이 높다고 명시되어 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 정보가 포함되어 있습니다. 특히, 성적에 대한 해석이 상반되어 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부에 대한 질문에 대한 답변을 제공하려고 하지만, 제공된 정보가 주제와 직접적으로 관련이 없고, 다른 학과의 정보가 포함되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 정보 간의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 특히, 성적에 대한 해석이 원본 텍스트와 상충하여 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있으며, 성적 해석에 대한 오류가 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 일부 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과 일치하지 않는 정보가 포함되어 있어 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 일관성이 부족하여 일부 부분에서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.7463432212901818</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부의 최초합격자는 다음과 같습니다:
+- 모집단위: 바이오의약공학과, 식품공학과
+- 모집인원: 총 3명 (바이오의약공학과 1명, 식품공학과 2명)
+- 지원인원: 총 7명
+경쟁률은 2.33이며, 충원 합격자는 바이오의약공학과에서 1명입니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 308.67이고, 영어 등급의 평균은 3.50이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 429.17입니다.
+당신이 언급한 성적(국어 + 수학 + 탐구: 3.33)만으로는 바이오응용공학부 최초등록에 충분하지 않을 것으로 보입니다. 하지만, 전체적인 학생부 점수와 영어 등급 등을 고려하면 가능성이 있습니다.
+더 자세한 정보나 추가 지원 방법은 동의대학교 입시 홈페이지를 참조하시거나, 대학 입학처에 문의하시는 것이 좋습니다.
+https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있는 가능성을 언급하고 있지만, 원본 텍스트에서 제시된 평균 등급보다 낮은 성적을 가지고 있다는 점을 간과하고 있습니다. 따라서, 합격 가능성이 낮다는 원본의 주장을 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있다고 언급하지만, 원본 텍스트의 내용과는 일치하지 않는 부분이 있습니다. 원본에서는 4.4의 등급이 평균보다 낮아 합격 가능성이 낮다고 명시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 여러 요소를 고려해야 한다고 설명하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 여러 요소를 나열하며 논리적으로 연결되어 있습니다. 그러나 원본 텍스트의 주장을 명확히 반영하지 않아 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있는 가능성을 언급하지만, 원본 텍스트의 평균 등급과 관련된 사실을 정확히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 측면에서 유용한 정보를 제공하지만, 원본 텍스트의 핵심 사실을 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 적절한 정보를 제공하고 있으며, 의미적으로 적절합니다. 그러나 원본의 주장을 완전히 반영하지 못합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6391255158850825</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>4.4의 등급으로 방사선학과에 지원하는 것은 가능하지만, 확실한 결과를 얻기 위해서는 여러 요소들을 고려해야 합니다.
+1. **성적**: 현재 등급이 4.4로, 방사선학과의 입학 기준을 충족하려면 해당 학과의 최저 성적 기준을 확인해야 합니다. 각 대학마다 다르므로 공식 홈페이지나 입학처에 문의해보세요.
+2. **전형 요소**: 일반학생전형에서는 주로 학생부와 수능 등급이 중요합니다. 2024학년도에는 서류(학생부)가 60%를 차지하고, 면접이 40%를 차지하므로, 학생부의 성적과 활동을 잘 반영해야 합니다.
+3. **활동 및 특기**: 방사선학과는 실무 능력과 관련된 특기가 중요할 수 있습니다. 의료진에 대한 관심이나 관련 프로젝트 참여 경험이 있다면 이점이 유리하게 작용할 수 있습니다.
+4. **면접 준비**: 면접에서는 자신의 꿈과 목표, 학업 계획 등을 잘 설명해야 합니다. 방사선학과의 특성에 대해 충분히 이해하고 있어야 합니다.
+5. **추천서**: 가능하다면 교사나 선생님에게 추천서를 받아보는 것도 도움이 될 수 있습니다.
+위와 같은 요소들을 종합적으로 고려하여 지원 계획을 세우시길 바랍니다. 만약 더 자세한 정보가 필요하시다면, https://ipsi. deu. ac. kr/main. do 에 접속해 보세요.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 방사선학과의 평균 등급에 대한 정보를 무시하고 있으며, 2.66이라는 GPA가 위험하다고 단정짓기 어렵다고 주장하고 있습니다. 그러나 원본 텍스트에서는 2.66이 평균보다 높은 성적임을 명확히 하고 있습니다. 따라서 사실관계에서 큰 오류가 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 방사선학과의 평균 등급에 대한 언급을 무시하고 있습니다. 이는 일관성이 부족한 결과를 초래합니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 방사선학과에 대한 질문에 대한 답변을 제공하고 있지만, 원본 텍스트의 핵심 정보를 반영하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 여러 요소를 고려해야 한다고 언급하지만, 원본 텍스트의 주제와 연결되지 않아 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 원본 텍스트의 사실을 왜곡하고 있으며, 2.66이라는 GPA가 평균보다 높다는 점을 간과하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서 낮은 점수를 기록하고 있으며, 사실관계와 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 의미적으로는 방사선학과에 대한 질문에 답변하고 있지만, 원본 텍스트의 맥락을 무시하고 있어 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4  
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.6147973643640705</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 방사선학과와 관련이 없는 내용입니다. 방사선학과의 경우, 정시 모집에 대한 특별한 기준이나 점수대가 명시되어 있지 않습니다. 따라서 방사선학과에서 2.66이라는 GPA로 지원하는 것은 위험하다고 단정 짓기는 어렵습니다.
+만약 특정 대학의 방사선학과에서 2.66이라는 평균 학점이 매우 낮은 점수라고 판단된다면, 그 이유를 분석해야 합니다. 예를 들어:
+1. 해당 대학의 방사선학과는 높은 GPA 기준을 요구하는지 확인합니다.
+2. 지원자의 다른 서류 (예: 면접 성적, 전공적합성 등)가 좋은 점수인지 확인합니다.
+3. 지원자가 학업 외에도 다양한 활동이나 특별한 경력을 가지고 있는지 확인합니다.
+만약 이러한 요소들이 부족하다면, 2.66이라는 GPA로는 위험할 수 있습니다. 반대로, 다른 평가 영역에서 좋은 점수를 얻었다면, 2.66의 GPA도 충분히 경쟁력이 있을 수 있습니다.
+더 자세한 정보나 조언을 원하신다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보시거나 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 포함하고 있지만, 합격 가능성에 대한 주장은 다소 과장된 측면이 있습니다. 3.66의 성적이 평균보다 낮다고 언급하면서도 합격 가능성이 있다고 하여 사실과 다소 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 원본 텍스트의 정보와 일부 일치하지만, 합격 가능성에 대한 해석이 다소 상충합니다. 원본 텍스트는 평균보다 높은 성적을 강조하고 있지만, 생성된 응답은 3.66이 낮다고 언급하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 지원 방법과 준비 과정에 대한 정보를 제공합니다. 그러나 원본 텍스트의 핵심 포인트인 평균 성적과 경쟁률에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 결론 부분에서 합격 확률에 대한 언급이 다소 모호하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 일부 정확한 정보를 포함하고 있지만, 3.66의 성적이 낮다고 언급한 부분은 사실과 다릅니다. 원본 텍스트에서는 3.66이 평균보다 높은 성적이라고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 그러나 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5051503910182475</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 평균 점수로 경찰행정학전공 농어촌 전형에 지원하시려면, 서류와 면접에서 좋은 성적을 받는 것이 중요합니다. 서류평가 영역별 세부 평가 기준을 보면, 학업역량이 가장 중요한 부분으로, 이 부분에서는 출결상황, 창의적체험활동상황, 교과학습발달상황(세부능력 및 특기사항 포함), 행동특성 및 종합의견 등을 평가합니다.
+학업역량에서 좋은 점수를 받으려면:
+1. 출결이 좋고 수업시간에 적극적으로 참여한 증거.
+2. 창의적 체험활동과 동아리 활동, 진로활동 등에서의 경험을 잘 기재한 학교생활기록부.
+3. 교과학습발달상황에서 세부능력 및 특기사항을 잘 기재한 내용.
+또한 면접에서도 자신의 학업역량과 전공적합성을 잘 보여줄 수 있도록 준비하는 것이 중요합니다. 특히, 농어촌 지역에 대한 이해와 관심을 표현하며, 경찰행정학전공에 대한 열정을 잘 전달할 수 있어야 합니다.
+결론적으로 3.66의 평균 점수로는 합격 확률이 낮지만, 서류와 면접에서 좋은 성적을 받으면 가능성이 있습니다. 자세한 지원 방법과 준비 과정은 모집단위별 입학사정관에게 문의하시거나, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동점자 처리 기준에 대한 정보를 제공하지만, 원문에서 언급된 특정 학과와 예비 25번 이상의 합격 가능성에 대한 내용을 충분히 반영하지 못하고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 동점자 처리 기준에 대한 정보를 제공하지만, 원문에서 제시된 예비 25번 이상의 합격 가능성에 대한 내용과는 일관성이 떨어집니다. 두 응답 간의 정보가 서로 충돌할 수 있는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격자와 관련된 정보를 제공하고 있지만, 원문에서 요구하는 특정 학과에 대한 정보는 포함되어 있지 않아 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 동점자 처리 기준에 대한 설명이 일관되게 이어집니다. 그러나 원문과의 연결성이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 동점자 처리 기준에 대한 정보를 제공하지만, 원문에서 제시된 특정 학과와 예비 25번 이상의 합격 가능성에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 원문과의 연결성이 부족하고, 일부 정보가 누락되어 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 동점자 처리 기준에 대한 의미를 잘 전달하고 있으나, 원문에서 요구하는 특정 정보와의 일치성이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.5535606296957395</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비 합격자는 동점자 처리 기준에 따라 최종 합격 여부가 결정됩니다. 현재 정보로는 정확한 결과를 알 수 없습니다.
+정시 일반학생 전형의 동점자 처리 기준은 다음과 같습니다:
+1. 순위 1: 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수 상위자
+2. 순위 2: 인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자
+3. 순위 3: 공과대학, ICT융합공과대학 모집단위 수능 수학(미적분 또는 기하) 응시자
+당신의 예비 합격 순위가 25번이라면, 동점자 처리 기준에 따라 최종 합격 여부는 해당 기준을 충족하는지에 따라 결정됩니다. 예를 들어, 만약 수능 국어 영역 표준 점수가 상위권이라면, 최종 합격 가능성은 높아질 수 있습니다.
+최종 결과를 확인하기 위해서는 입학관리팀에서 동점자 처리 결과를 확인하거나, 입학 안내 홈페이지에서 개별 조회가 가능합니다. 따라서 정확한 정보를 얻기 위해 해당 사이트를 참조하시거나, 입학관리팀에 문의하시는 것이 좋습니다.
+더 자세한 내용은 https://ipsi. deu. ac. kr/main. do 또는 http://www. uwayapply. com을 방문해 보세요.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보가 잘못된 점이 있습니다. 원문에서는 법경찰행정학부가 존재하지 않는다고 명시하고 있지만, 생성된 응답에서는 이 학부에 대한 정보를 제공하고 있습니다. 이는 사실과 상충하는 내용입니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원문과 일관성이 부족합니다. 원문에서 법경찰행정학부가 존재하지 않는다고 명시했음에도 불구하고, 생성된 응답에서는 이 학부에 대한 정보를 제공하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교의 입학 정보에 대한 일반적인 내용을 포함하고 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 전체적으로 원문과의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 전반적으로 일관된 흐름을 가지고 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 법경찰행정학부에 대한 잘못된 정보가 포함되어 있어 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원문에서 제공하는 사실과 일치하지 않으며, 법경찰행정학부에 대한 잘못된 정보를 포함하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원문과의 의미적 일치가 부족합니다. 법경찰행정학부에 대한 잘못된 정보는 원문의 맥락과 맞지 않으며, 이는 의미적 적절성에 부정적인 영향을 미칩니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7493343278747775</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 법경찰행정학부에 대한 정확한 정보를 제공하기 위해서는 해당 대학교의 입학처 웹사이트나 공식 문서를 참조해야 합니다. 하지만, 일반적으로 동의대학교의 경우, 평균적인 경쟁률과 합격 점수를 기준으로 추정해볼 수 있습니다.
+일반적으로 법경찰행정학부는 경쟁률이 높은 학과 중 하나로, 정시 모집에서 안정권을 유지하기 위해서는 평균 4.0 이상의 등급을 받는 것이 바람직합니다. 이는 국어, 수학, 탐구(2개) 등의 영역에서 좋은 성적을 받아야 함을 의미합니다.
+특히, 동의대학교의 경우, 학생부종합전형과 같은 전형에서도 높은 경쟁률을 보이므로, 정시 모집에서도 비슷한 수준의 점수를 받는 것이 중요할 것입니다. 
+따라서, 법경찰행정학부에 정시로 들어갈려면 평균 4.0 이상의 등급을 받는 것이 바람직하며, 이보다 높은 점수를 받으면 안정권에서 문을 닫고 들어갈 수 있을 것입니다.
+만약 더 자세한 정보가 필요하다면, 동의대학교 입학처 웹사이트나 공식 문서를 참조하거나 직접 문의하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크에서 추가 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 경쟁률과 수능 등급 평균에 대한 정보를 포함하고 있지만, 원본 텍스트에서 언급된 아동학과의 평균 등급과 관련된 정보는 누락되어 있습니다. 또한, 아동학과와 보육가정상담학과의 관계에 대한 명확한 설명이 부족하여 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하지만, 원본 텍스트의 아동학과와의 관련성을 명확히 연결하지 않아 일관성이 떨어집니다. 두 학과의 정보가 혼합되어 있어 혼란을 초래할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 관련 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 아동학과의 평균 등급에 대한 정보가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 아동학과와 보육가정상담학과의 관계가 명확하지 않아 논리적 흐름이 약간 부족합니다. 정보가 분산되어 있어 일관된 주제를 유지하기 어렵습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 경쟁률과 수능 등급 평균에 대한 정보를 제공하지만, 원본 텍스트의 아동학과 관련 정보와의 연결이 부족하여 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트와의 연결이 부족하여 전반적인 품질이 떨어집니다. 정보의 일관성과 관련성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 아동학과와 보육가정상담학과의 관계에 대한 명확한 설명이 부족하여 의미적 적절성이 다소 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 분산으로 인해 일부 부분에서 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.5482526379810416</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 최초합격자 경쟁률을 확인해보겠습니다.
+- **최초합격자**: 6명
+- **지원 인원**: 22명
+- **경쟁률**: 3.67
+이 정보를 바탕으로, 정시 산출 등급이 5.33인 경우 경쟁률을 고려해보겠습니다.
+현재 제공된 데이터는 수능 점수와 합격자 경쟁률에 대한 정보만 포함하고 있습니다. 보육가정상담학과의 최초합격자들의 수능 등급 평균 및 표준편차를 확인해야 합니다. 
+2024학년도 동의대학교 보육가정상담학과의 수능 4개 영역 등급 평균은 4.31이며, 표준 편차는 0.15입니다.
+**평균 등급 4.31**과 **표준편차 0.15**를 고려하면, 정시 산출 등급이 5.33인 경우 매우 높은 수준의 등급이며, 이는 평균 이상의 성적을 보여줍니다.
+**경쟁률 3.67**를 고려할 때, 평균 이상의 등급을 가진 지원자가 많지 않을 것으로 예상됩니다. 따라서 정시 산출 등급이 5.33인 경우 합격 가능성은 높다고 판단될 수 있습니다.
+하지만 최종 결정을 내리기 위해서는 동의대학교 보육가정상담학과의 최종합격자들의 수능 점수와 등급 분포를 확인해야 합니다. 이 정보는 대학 홈페이지나 입시 관련 자료에서 확인할 수 있을 것입니다.
+더 정확한 판단을 위해, https://ipsi. deu. ac. kr/main. do 를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "학생부종합전형"이라는 용어가 원문에 없으며, 이는 다소 부정확한 정보로 간주될 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "학생부종합전형"이라는 추가 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원문에서는 충원 합격자 발표에 대한 일반적인 정보만 제공하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 예비 번호와 충원 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 "학생부종합전형"이라는 용어가 추가되면서 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, "학생부종합전형"이라는 용어가 원문에 없기 때문에 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일부 부정확한 정보로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 잘 맞지만, 추가된 정보가 다소 부적절할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 표현이 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.7542117600122819</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 학생부종합전형에서 충원 합격자 3차 발표 및 등록일정은 2024. 02. 15.(목) 19:00부터 2024. 02. 20.(화) 18시까지입니다. 이 기간 동안 합격자 발표가 이루어지며, 합격 여부는 홈페이지에서 개별 조회 가능합니다.
+동의대학교의 학생부종합전형에서는 충원 합격자가 발표되므로, 예비 12번을 받았다면 충원 합격 가능성은 있습니다. 하지만 최종 합격 여부는 합격자 명단이 공개될 때까지 확실하지 않습니다.
+따라서, 2024년 02월 20일까지 홈페이지에서 개별 조회를 통해 최종 합격 여부를 확인하시기 바랍니다. 더 자세한 정보나 추가 지원에 대한 궁금증이 있다면 https://ipsi. deu. ac. kr/main. do로 접속하여 확인해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 지원할 수 있다고 언급하지만, 원본 텍스트에서는 4.75의 성적으로는 지원하기 어려울 것이라고 명확히 설명하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서는 4.75로 유아교육학과에 지원하기 어렵다고 명시했으나, 생성된 응답에서는 가능하다고 언급하고 있습니다. 이로 인해 일관성 점수는 2로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과 지원에 대한 조언을 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본의 핵심 정보인 성적에 대한 분석이 부족하여 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 제안된 절차가 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 부족하여 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 정보가 일부 정확하지만, 4.75 성적에 대한 해석이 원본과 다릅니다. 이로 인해 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점을 가지고 있지만, 사실성과 일관성에서 큰 문제를 보이고 있어 종합 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 유아교육학과 지원에 대한 적절한 의미를 전달하고 있으며, 전반적으로 맥락에 맞는 내용을 포함하고 있습니다. 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 제안된 절차가 명확하게 설명되어 있습니다. 그러나 일부 문장이 길어질 수 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7282942741090638</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 성적을 가지고 정시로 유아교육학과에 지원하는 것은 가능하지만, 경쟁률이 매우 높기 때문에 어려울 수 있습니다.
+유아교육학과의 경우, 정시 모집에서는 학생부 종합 평가와 정시 성적이 함께 고려되므로 4.75라는 성적은 좋은 점수입니다. 그러나 유아교육학과는 인기가 높고 경쟁률이 매우 높기 때문에 이 성적만으로는 충분하지 않을 수 있습니다.
+추천드리면, 다음과 같은 절차를 따르시는 것이 좋을 것 같습니다:
+1. **학생부 종합 평가** : 학생부에서 보여주는 인성과 학업역량이 중요합니다. 이 부분에 대해 잘 준비해야 합니다.
+2. **추천서 및 자기소개서 작성** : 추천서는 교사나 부모님의 도움을 받아 작성하고, 자기소개서는 유아교육에 대한 열정과 계획을 잘 담아야 합니다.
+3. **면접 준비** : 면접에서도 유아교육에 대한 이해와 미래 계획 등을 잘 설명해야 합니다.
+이런 절차를 통해 4.75라는 성적도 유리하게 작용할 수 있습니다. 그러나 경쟁률이 높기 때문에, 다른 지원 방법이나 대안을 고려해 보는 것도 좋습니다. 예를 들어, 학생부 종합 평가로 지원하거나, 전형별로 다양한 학과를 시도하는 것이 좋을 수 있습니다.
+더 자세한 정보나 도움이 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참고해 보세요.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 합격 가능성에 대한 정보를 제공하고 있으며, 4.16 등급이 합격 가능성에 미치는 영향을 설명하고 있습니다. 그러나, 원문에서 제공된 구체적인 평균 등급 수치(영어 등급 평균 6.33, 수능 4개 영역 등급 평균 7.08)에 대한 언급이 없어서 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 보육가정상담학과의 합격 가능성에 대해 설명하고 있습니다. 다만, 원문에서 제시된 평균 등급과 비교하는 부분이 부족하여 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 보육가정상담학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 명확한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확하지만, 원문에서 제공된 구체적인 수치에 대한 언급이 없어서 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있지만, 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.5857504996738589</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>4.16 등급을 가지고 보육가정상담학과 일반학생전형에 지원하셨다면, 합격 가능성은 있습니다만, 확실한 것은 아닙니다. 이유는 다음과 같습니다:
+1. **등급 환산**: 동의대학교의 정시 모집에서 4.16 등급이 어느 정도의 점수로 환산되는지는 알 수 없습니다. 이 점수가 학교생활기록부 평가 영역 중 '학업역량'에 어떻게 반영될지 중요합니다.
+2. **평가 기준**: 동의대학교는 공동체역량, 학업역량, 전공적합성 등 세 가지 영역을 평가하는데, 이 중 학업역량이 가장 중요한 부분입니다. 4.16 등급은 학업역량에 긍정적인 점수를 부여할 것입니다.
+3. **추합**: 추합은 지원자의 전반적인 성적과 활동을 종합적으로 평가하는 과정입니다. 단순히 등급만으로는 합격 여부를 판단하기 어렵습니다. 다른 영역(공동체역량, 전공적합성)에서의 점수와 활동도 중요합니다.
+4. **입학사정관 평가**: 동의대학교는 모집단위별로 2명의 입학사정관이 서류를 평가하므로, 개인의 특성과 활동을 종합적으로 판단하는 과정입니다. 이 점에서 지원자의 전반적인 성적과 활동이 중요합니다.
+따라서, 4.16 등급만으로는 합격 여부를 단정하기 어렵습니다. 지원자의 전체 서류와 활동을 종합적으로 평가하는 과정에서 결정됩니다. 따라서, 최종 결과를 확인하려면 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋겠습니다.
+추천되는 조치는 다음과 같습니다:
+- 동의대학교 입학처 웹사이트를 방문하여 최신 정보를 확인합니다.
+- 전화로 문의하거나, 필요하다면 직접 입학처에 방문하여 상담을 받습니다.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문과 상반된 내용을 포함하고 있습니다. 정시 지원을 위한 전형 요소와 평균 수능 등급에 대한 정보는 사실일 수 있지만, 원문에서 명시된 사실을 완전히 무시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 정시 지원이 불가능하다고 명확히 언급하고 있지만, 생성된 응답은 정시 지원을 위한 조건을 설명하고 있습니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하려고 하지만, 정시 지원이 불가능하다는 원문의 핵심 내용을 무시하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 없기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 원문에서 전달하고자 하는 내용을 왜곡하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 관계가 없기 때문에 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.4291700251426986</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과를 정시로 지원하려면, 전형 요소 반영 비율을 확인해야 합니다. 2023년도에는 실기/실적(경기실적우수자전형)의 경우 학생부교과(출결포함)가 30%, 서류(실적)가 70%였습니다. 하지만 2024년도에 변경된 전형 요소 반영 비율은 실기/실적(경기실적우수자전형): 학생부교과18%+출결12%+서류(실적)70%입니다.
+따라서, 정시로 소프트웨어융합학과를 지원하려면 학생부 교과 성적이 중요해졌습니다. 2024년도의 평균 수능 등급은 4.31이며, 표준 편차는 0.15입니다. 이에 따라 평균적으로 4.31등급 정도를 받아야 하는 것으로 추정할 수 있습니다.
+하지만 정확한 합격 기준을 알기 위해서는 해당 대학의 공식 입학 정보 페이지를 확인하거나, 입학처와 직접 문의하는 것이 가장 정확합니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 입학 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 면접에서 세특 내용이 중요하다고 언급하고 있지만, 원문에서는 세특 내용에 대한 언급이 없고, 서류 평가와 면접 고사에 대한 정보만 제공하고 있습니다. 따라서 일부 사실이 정확하지 않거나 원문과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문에서 제공하는 정보와 일부 일치하지만, 면접에서 세특 내용이 중요하다는 주장은 원문에 명시되어 있지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 면접 준비와 관련된 정보를 제공하고 있으며, 원문에서 언급된 서류 평가와 면접 고사와 관련이 있습니다. 그러나 세특 내용에 대한 강조는 원문과는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 준비에 대한 조언이 일관되게 제시되고 있습니다. 그러나 원문과의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 면접 준비에 대한 정보는 유용하지만, 원문에서 제공하는 정보와는 다소 차이가 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 유용한 정보를 제공하지만, 원문과의 일치성 및 정확성이 부족하여 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 면접 준비에 대한 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 원문과의 차이가 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.4347694683130016</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 일반적으로 면접에서는 지원자의 개인적인 경험, 능력, 그리고 학업 계획 등을 평가하기 때문에, 세특 내용이 중요하게 다뤄집니다. 특히, 소프트웨어 융합과 관련된 전공적합성 영역에서의 성장과정과 결과를 잘 설명하는 것이 필요합니다.
+따로 준비해야 하는 서류는 없습니다. 하지만 면접 질문 공통문항을 미리 읽고 답변할 수 있도록 준비하는 것은 도움이 될 것입니다. 예를 들어:
+1. 지원동기 및 학업계획: 왜 이 전공을 선택했는지, 그리고 입학 후 어떤 목표를 세웠는지를 설명하세요.
+2. 학업역량: 고교 생활 중에 학업에 대한 어려움과 이를 해결하기 위한 노력을 설명하세요.
+3. 전공적합성: 본인이 의미를 두고 노력했던 지원 전공(계열)과 관련된 교내 활동을 이야기해 보세요.
+면접 시에는 진실성을 유지하고, 자신의 경험과 능력을 정직하게 표현하는 것이 중요합니다. 또한, 면접관의 질문에 대해 깊이 있게 답변하며, 자신감을 가지고 대답하는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어융합학과의 최초합격 가능성에 대한 정보를 제공하고 있으며, 4.08이라는 성적이 좋은 성적이라는 점을 언급하고 있습니다. 그러나 '소프트웨어융합학과'라는 명칭이 '소프트웨어공학부'와 다르기 때문에 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, '소프트웨어융합학과'라는 다른 학과명을 사용하여 일관성이 떨어집니다. 또한, 최초합격자의 평균 성적에 대한 언급이 부족하여 일관성이 약간 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 지원자의 성적과 합격 가능성에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 '소프트웨어융합학과'라는 명칭으로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 4.08이라는 성적이 좋은 성적이라는 점을 언급하고 있으며, 합격 가능성에 대한 설명도 적절합니다. 그러나 '소프트웨어융합학과'라는 명칭이 정확하지 않아 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 약간의 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, '소프트웨어융합학과'라는 명칭이 원본과 다르기 때문에 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 문장에서 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7821814538463688</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>4.08이라는 성적을 가지고 동의대학교 소프트웨어융합학과에 최초합격하는 것은 가능성이 있지만 확실하지 않습니다. 정시 합격 여부는 여러 요인에 따라 결정되며, 주요 요인으로는 모집단위, 지원 인원 수, 경쟁률 등이 있습니다.
+현재 제공된 정보만으로는 동의대학교 소프트웨어융합학과의 최초합격자들의 성적 분포를 정확히 알 수 없습니다. 그러나 일반적으로 4.08이라는 성적은 좋은 성적이므로, 해당 학과에서 지원하는 경우 경쟁률이 높을 가능성이 있습니다.
+추가적인 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 또한, 동의대학교 소프트웨어융합학과의 최초합격자들의 성적 분포와 경쟁률 등을 확인해 보시면 더 정확한 판단을 할 수 있을 것입니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 를 방문하여 확인하시거나, 동의대학교 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 제공된 정보와는 다른 점수와 등급을 언급하고 있습니다. 이는 원본 텍스트와 일치하지 않으므로 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 상충하는 정보를 포함하고 있습니다. 예를 들어, 원본 텍스트는 합격 등급 정보가 없다고 명시하고 있지만, 생성된 응답은 특정 점수와 등급을 제시하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 합격 등급 정보와는 관련이 적습니다. 따라서 중간 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 따라서 중간 점수를 부여합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. 특히, 합격 등급에 대한 정보가 잘못된 것으로 보입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 다차원적인 품질도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있습니다. 따라서 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으나, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6374215914845466</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부(소프트웨어융합학과)의 경우, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 315.80이며, 수능 4개 영역 등급의 평균은 4.47입니다.
+이 정보만으로는 정확한 경쟁률을 예측하기 어렵습니다. 하지만, 5등급이라는 점에서 볼 때, 이는 평균보다 약간 낮은 수준입니다. 따라서, 315.80의 표준 변환 점수 합과 4.47의 등급 평균을 기반으로 하면, 5등급이 어느 정도 경쟁력을 가질 수 있을 것으로 예상할 수 있습니다.
+하지만, 정확한 경쟁률을 알기 위해서는 해당 학과의 지원 인원과 모집 인원 등을 고려해야 합니다. 따라서, 더 자세한 정보를 얻으시려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나, 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학과의 모집 인원, 지원 인원, 경쟁률, 표준 변환 점수 등의 정보를 포함하고 있지만, 원본 텍스트에서 제공된 정보와는 다르게 합격 가능성에 대한 판단이 부정확합니다. 원본 텍스트는 성적이 평균보다 높다고 하여 합격 가능성이 높다고 판단했으나, 생성된 응답은 합격 가능성이 낮다고 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 성적이 평균보다 높다고 하여 합격 가능성이 높다고 판단했지만, 생성된 응답은 반대로 합격 가능성이 낮다고 주장하고 있습니다. 이러한 상충은 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 지원자의 성적과 관련된 추가적인 요소들을 설명하고 있습니다. 그러나 원본 텍스트의 핵심 판단을 무시하고 다른 정보를 제공하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 원본 텍스트의 주제와의 연결이 약해 보입니다. 합격 가능성에 대한 판단이 일관되지 않아 논리적 흐름이 다소 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충되는 정보를 포함하고 있습니다. 원본 텍스트는 성적이 평균보다 높다고 하여 합격 가능성이 높다고 판단했으나, 생성된 응답은 그와 반대의 결론을 내리고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 떨어지는 응답입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 다르게 해석되고 있습니다. 원본 텍스트의 맥락을 고려할 때, 생성된 응답의 의미가 적절하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 내용이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6402279040989419</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과의 모집 인원은 6명이며, 지원 인원은 17명으로 경쟁률이 약 2.83입니다. 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 426.80이고, 표준 편차는 11.08입니다.
+당신의 정시 성적이 4.28이므로, 이 점수만으로 판단하면 합격 가능성은 낮습니다. 하지만 실제 합격 여부는 여러 요소가 복합적으로 결정되므로, 다음과 같은 사항을 확인해보세요:
+1. **성적 외 평가**: 동의대학교에서는 실기/실적(경기실적우수자전형)에서 학생부교과 18%+출결 12%+서류(실적)70%를 반영합니다.
+2. **학생부 성적**: 실제 학생부 교과성적이 중요하며, 평균 점수가 높은 지원자들이 선호됩니다.
+3. **면접 및 실기**: 일부 전형에서는 면접이나 실기 시험을 볼 수 있으므로, 준비를 철저히 해야 합니다.
+이러한 요소들을 종합적으로 고려해보시고, 필요하다면 동의대학교 입학처에 문의하시거나, 제공된 정보와 실제 성적을 비교하여 판단해보세요. 더 자세한 정보는 https://ipsi. deu. ac. kr/main. do를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요 없다는 사실을 언급하고 있지만, 자기소개서를 작성하는 것이 유익할 수 있다는 추가 정보를 제공하고 있습니다. 그러나 이 정보는 원본 텍스트의 주된 사실과는 다소 상충할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 자기소개서의 필요성에 대한 추가적인 설명이 원본의 주장을 약간 모호하게 만듭니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형과 자기소개서에 대한 정보를 제공하며, 관련된 내용을 다루고 있습니다. 그러나 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 자기소개서의 필요성에 대한 설명이 원본 텍스트와의 연결이 약간 느슨합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 수능 일반학생전형에 대한 정확한 정보를 제공하지만, 자기소개서의 필요성에 대한 추가적인 주장은 원본 텍스트와의 일치성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 응답은 여러 차원에서 중간 정도의 품질을 보이며, 일부는 긍정적이지만 다른 부분에서는 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 자기소개서의 필요성에 대한 추가적인 설명이 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.5374076745867162</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 일반학생전형에서는 주로 수능 점수와 교과 성적, 실기 등이 평가 대상입니다. 따라서 자기소개서는 필수적으로 작성해야 하는 항목은 아닙니다.
+하지만 자기소개서를 작성해 보시면 입학사정관들이 지원자의 개인적인 특성과 학업 태도 등을 더 잘 이해할 수 있습니다. 이로 인해 합격 확률을 높일 수 있을 것입니다.
+자기소개서를 작성하려면 다음과 같은 내용들을 고려해 보시는 것이 좋습니다:
+1. 지원 동기와 목표
+2. 학업 태도와 성적 향상 노력
+3. 특기나 관심 있는 활동 및 경험
+자세한 내용은 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나, 동의대학교 입학처에 문의해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 잘 반영하고 있으며, 추가 모집에 대한 고려 사항도 적절하게 언급하고 있습니다. 그러나 일부 세부 사항이 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있으며, 추가 모집에 대한 설명도 원본의 내용과 잘 연결되어 있습니다. 다만, 일부 세부 사항에서 약간의 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 질문에 대한 적절한 답변을 제공합니다. 모든 정보가 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 몇몇 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가 모집에 대한 정보도 정확하게 전달하고 있습니다. 그러나 세부 사항에서 약간의 차이가 있을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나 일부 세부 사항에서 개선의 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 몇몇 부분에서 더 명확한 표현이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.662485553803036</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 좋은 성적입니다. 하지만 추가모집에 들어가는 것은 여러 요소가 고려됩니다.
+1. **모집단위**: 인문사회과학대학, 상경대학 모집단위 또는 의료·보건·생활대학, 공과대학, ICT융합공과대학 모집단위 등에 따라 수능 점수의 반영 비율이 다릅니다.
+2. **성적 산출방법**: 각 모집단위별로 국어, 수학, 영어, 탐구 등의 성적을 어떻게 합산하는지가 중요합니다. 예를 들어, 일부 모집단위는 상위 3개 영역만 반영할 수 있습니다.
+3. **기타 평가 요소**: 실기/실적(경기실적우수자전형) 등 다른 평가 요소도 고려됩니다.
+따라서, 동의대에 추가모집으로 들어갈 수 있는지 확인하기 위해서는:
+- 해당 모집단위의 정시와 추가모집에서의 성적 산출방법을 확인해야 합니다.
+- 각 모집단위별로 요구하는 최저 점수를 파악해야 합니다.
+더 자세한 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하거나 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학과의 경쟁률과 모집 인원에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 영어 등급 평균(5.06)과 수능 4개 영역 등급 평균(5.78)에 대한 정보는 포함되어 있지 않으며, 제공된 정보가 사실인지 확인할 수 있는 출처도 없습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 정보(경쟁률, 모집 인원 등)를 포함하고 있습니다. 원본 텍스트는 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 경쟁률에 대한 정보로 초점을 맞추고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용인 합격 가능성에 대한 정보와는 직접적인 관련이 적습니다. 그러나 여전히 신소재공학과와 관련된 정보이므로 중간 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 정보 간의 연결이 매끄럽지 않아 일관된 흐름이 부족합니다. 경쟁률과 합격 기준 점수에 대한 정보가 분리되어 있어 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답에서 제공된 정보(경쟁률, 모집 인원 등)의 정확성을 확인할 수 있는 출처가 없으며, 원본 텍스트의 주요 사실을 누락하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 관계가 약합니다. 따라서 다차원 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과와 관련된 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 그러나 여전히 관련된 주제이므로 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 다만, 일부 정보의 흐름이 매끄럽지 않아 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6333763342743054</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과의 경쟁률은 평균적으로 3.67이며, 모집인원은 6명입니다. 지원 인원은 11명이므로, 충원 합격자는 6명으로 경쟁률이 높습니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 312.33이며, 이는 대략적인 합격 기준 점수를 나타내지만, 정확한 등급을 알기 위해서는 동의대학교 입학처 홈페이지나 공식 안내서를 확인해야 합니다.
+공식 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 최신 정보를 확인하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보를 제공하지만, 447점이 작년 평균 점수보다 높다는 사실을 명확히 반영하지 않고 있습니다. 또한, 게임공학과, 영화학과, 패션디자인학과의 경쟁률에 대한 언급은 원문과 관련이 없습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하지 않는 부분이 있습니다. 특히, 447점이 작년 신소재공학과의 평균 점수보다 높다는 점을 간과하고 있으며, 다른 학과의 경쟁률에 대한 언급은 원문과의 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 게임공학과와 영화학과, 패션디자인학과의 경쟁률에 대한 언급은 원문에서 요구하는 정보와는 거리가 있습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결성이 약해져서 일관성이 떨어지는 부분이 있습니다. 특히, 다른 학과에 대한 언급이 흐름을 방해합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 447점이 작년 신소재공학과의 평균 점수보다 높다는 사실을 명확히 반영하지 않고 있습니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 원문과의 일관성 및 관련성이 떨어져서 전반적인 품질이 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원문과의 맥락에서 벗어난 부분이 있어 의미의 일관성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장은 복잡하게 느껴질 수 있습니다. 따라서 이해 가능성 점수는 높게 평가됩니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7295098733235582</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 게임공학과와 영화학과, 패션디자인학과 등의 경쟁률과 충원 합격자를 보면, 표준점수 평균이 약간 변동할 수 있습니다. 하지만 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았다는 정보만으로는 확실한 예측을 하기는 어렵습니다.
+현재 제공된 데이터를 바탕으로, 표준점수와 경쟁률, 충원 합격자 등의 요인들이 작년과 유사하게 유지된다면 작년의 평균 점수보다 약간 높은 점수가 요구될 수 있습니다. 그러나 이는 단순히 작년 데이터만으로 예측하는 것이므로, 정확한 결과를 알기 위해서는 동의대학교 입학처 웹사이트나 공식 발표를 확인하는 것이 가장 확실합니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 경쟁이 치열하다는 점을 언급하고 있지만, 원본 텍스트에서 제공된 평균 성적과 비교하여 합격 가능성이 높다고 언급한 부분과 상충합니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 합격 가능성에 대한 해석이 다르기 때문에 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊고, 신소재공학부의 전형에 대한 정보를 제공하므로 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장이 다소 복잡하게 구성되어 있어 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽지만, 일부 부분에서 원본 텍스트와의 연결이 약해져 있어 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 합격 가능성에 대한 해석이 다소 다르기 때문에 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 여러 차원에서 평가했을 때, 생성된 응답은 전반적으로 양호하나 일부 사실과의 불일치가 있어 다차원 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 해석에서 차이가 있어 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 구성되어 있어 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5688481708676403</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.1~4.2 등급대의 성적이면 신소재공학부 일반학생전형에서는 경쟁이 매우 치열할 것으로 예상됩니다. 이 전형은 수능 점수와 학생부 종합 평가를 기반으로 하며, 특히 수능 영어 영역에서 높은 등급을 요구하는 경우가 많습니다.
+현재의 성적(4.1~4.2)이면 다음과 같은 점들을 고려해야 합니다:
+1. **수능 성적**: 국어, 수학, 영어, 탐구 영역 중 상위 3개 영역의 표준점수 및 등급점수를 반영합니다.
+2. **학생부 종합 평가**: 학생의 학업성적 외에도 자질, 활동, 특기 등을 종합적으로 평가합니다.
+신소재공학부는 대체로 높은 수능 점수와 좋은 학생부 성적을 요구하므로 4.1~4.2 등급대의 성적만으로는 경쟁력을 갖추지 못할 가능성이 큽니다. 그러나 일부 특별한 경우나 전형 요소가 유리하게 작용한다면 기회를 얻을 수도 있습니다.
+따라서, 현재의 성적이 신소재공학부 일반학생전형에 충분히 부합하지 않는다고 판단됩니다. 다른 전형이나 대학을 고려해보는 것이 좋을 것 같습니다. 더 자세한 정보를 얻기 위해서는 해당 대학의 입시 홈페이지나 학생상담실을 방문하여 확인하는 것이 가장 정확할 것입니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 반영 영역과 합격 가능성에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제공된 최초합격자 성적에 대한 구체적인 수치와 통계는 포함되어 있지 않습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 원본에서 제공된 구체적인 성적 정보와는 다소 상충하는 부분이 있습니다. 예를 들어, 합격 가능성에 대한 수치는 원본 텍스트에 명시된 평균 성적과는 다릅니다. 따라서 일관성 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 반영 영역과 합격 가능성에 대한 정보를 제공하여 주제와 관련이 있습니다. 그러나 원본 텍스트의 구체적인 성적 정보와는 다소 차이가 있어 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 따라서 유창성 점수를 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어져 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 반영 영역에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 성적 수치와는 다소 차이가 있어 정확성 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 유창성과 관련성에서 높은 점수를 받았지만, 사실성과 정확성에서 다소 부족하여 종합적으로 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 구체적인 내용과는 다소 차이가 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성 점수를 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.7654704250837169</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 인공지능학과는 수능 반영 영역이 다음과 같습니다:
+- 국어(화법과작문 또는 언어와매체) : 25%
+- 수학(확률과통계 또는 미적분 또는 기하) : 25%
+- 영어 : 25%
+- 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) : 25%
+따라서, 수능 성적이 다음과 같다면 합격 가능성이 높습니다:
+- 국어: 104 이상
+- 수학: 108 이상 (미적분 또는 기하)
+- 영어: 4등급 이상
+- 탐구: 47 이상 (물리Ⅰ 또는 화학Ⅰ)
+이러한 성적이 있다면, 동의대학교 인공지능학과로 수능 일반학생전형으로 지원 가능할 것으로 보입니다. 하지만 최종 합격 여부는 모집단위와 같은 조건들에 따라 결정되므로, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.
+https://ipsi. deu. ac. kr/main. do 에서 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 충원 합격 가능 학과에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 학과와 성적 기준에 대한 정보와 일치하지 않습니다. 특히, '의료보건생활대학 - 식품영양학과'가 충원 합격 가능하다고 언급했으나, 원본 텍스트에서는 해당 학과가 포함되지 않았습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트에서 제시된 충원 합격 가능 학과 목록과 생성된 응답의 학과 목록이 서로 다릅니다. 이는 정보의 일관성을 해칩니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 5.27 성적에 대한 충원 합격 가능성을 다루고 있습니다. 그러나 원본 텍스트의 세부 사항과는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장 구조가 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 정보가 나열되어 있지만, 전체적인 흐름이 원본 텍스트와 일치하지 않아 일관된 논리적 흐름이 부족합니다. 각 학과의 정보가 명확하게 연결되지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 충원 합격 가능 학과에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 이는 전체적인 품질을 저하시킵니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 원본 텍스트의 맥락과는 다소 차이가 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 정보의 정확성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.7533385759022834</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 동의대학교에서 추합 가능한 단과대학 및 모집단위를 확인해보겠습니다.
+1. **의료보건생활대학 - 의료경영학과**
+   - 경쟁률: 2.80
+   - 충원 합격 (후보순위): 9
+   - 평균 표준 변환 점수 합: 261.30
+2. **의료보건생활대학 - 물리치료학과**
+   - 경쟁률: 12.75
+   - 충원 합격 (후보순위): 3
+   - 평균 표준 변환 점수 합: 348.23
+3. **의료보건생활대학 - 식품영양학과**
+   - 경쟁률: 2.17
+   - 충원 합격 (후보순위): 7
+   - 평균 표준 변환 점수 합: 256.84
+4. **한의과대학 - 한의예과(수학&lt;미적분/기하&gt;)**
+   - 경쟁률: 8.00
+   - 충원 합격 (후보순위): 12
+   - 평균 표준 변환 점수 합: 399.33
+5. **한의과대학 - 한의예과(수학&lt;확률과통계&gt;)**
+   - 경쟁률: 7.00
+   - 충원 합격 (후보순위): 0
+   - 평균 표준 변환 점수 합: 535.29
+6. **공과대학 - 기계공학과, 로봇자동화공학과, 자동차공학과**
+   - 경쟁률: 0.87
+   - 충원 합격 (후보순위): 0
+   - 평균 표준 변환 점수 합: 251.82
+7. **공과대학 - 조선해양공학과**
+   - 경쟁률: 0.83
+   - 충원 합격 (후보순위): 0
+   - 평균 표준 변환 점수 합: 262.88
+8. **공과대학 - 신소재공학과, 분자나노공학과**
+   - 경쟁률: 1.45
+   - 충원 합격 (후보순위): 25
+   - 평균 표준 변환 점수 합: 378.15
+9. **공과대학 - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과**
+   - 경쟁률: 3.72
+   - 충원 합격 (후보순위): 13
+   - 평균 표준 변환 점수 합: 426.11
+10. **공과대학 - 환경공학과, 화학공학과, 응용화학과**
+    - 경쟁률: 1.21
+    - 충원 합격 (후보순위): 21
+    - 평균 표준 변환 점수 합: 377.52
+이 중에서 5.27의 성적을 가지고 추합 가능한 단과대학 및 모집단위는 **의료보건생활대학 - 식품영양학과**입니다. 이 과정은 경쟁률이 낮고, 평균 표준 변환 점수 합도 5.27에 가까워 추합 가능성이 높습니다.
+따라서, **의료보건생활대학 - 식품영양학과**를 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 관련된 정보를 포함하고 있지만, 경쟁률과 표준 변환 점수에 대한 정보는 원본 텍스트에 명시되어 있지 않습니다. 따라서 일부 정보는 추가되었으나, 원본 텍스트의 핵심 사실과는 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하고 있지만, 추가된 정보(경쟁률, 표준 변환 점수 등)가 원본 텍스트와 일치하지 않거나 모순될 수 있습니다. 따라서 일관성이 다소 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 정시 성적 4.2와 관련된 합격 가능성에 대한 정보를 제공하고 있어 주제와 관련성이 높습니다. 그러나 일부 추가 정보는 원본 텍스트의 핵심 주제와는 다소 벗어날 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 자연스럽게 연결되어 있습니다. 그러나 일부 추가 정보가 원본 텍스트와의 연결성을 약간 약화시킬 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 추가된 정보가 정확한지 확인할 수 없으므로 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 다소 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 주제를 잘 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.7015818775414033</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 정보를 바탕으로, 정시 성적 4.2는 어느 정도의 합격 가능성을 가질 수 있는지 살펴보겠습니다.
+**소프트웨어공학부 관련 정보:**
+- **경쟁률**: 3.67
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 312.33
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 8.10
+**성적 평균과 비교:**
+- 정시 성적 4.2는 국어, 수학, 탐구 등에서 좋은 성적을 받았습니다.
+- 평균적인 경쟁률은 3.67이며, 이는 지원 인원이 모집 인원보다 약간 더 많은 상황입니다.
+**합격 가능성:**
+- 정시 성적 4.2는 평균 점수인 312.33을 훨씬 초과하고 있습니다.
+- 표준 편차가 8.10이므로, 이 정도의 성적이면 충분히 합격 가능성이 높습니다.
+**결론:**
+정시 성적 4.2는 동의대학교 소프트웨어공학부에 합격할 수 있는 좋은 기회를 가집니다. 그러나 최종 합격 여부는 지원 인원과 모집 인원, 경쟁률 등 다양한 요인에 따라 결정되므로, 정확한 결과는 입시 결과 발표를 통해 확인해야 합니다.
+더 자세한 정보나 추가 질문이 있으시다면 https://ipsi. deu. ac. kr/main. do 를 참조하시거나 문의해주세요.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 제공하고 있으며, 3.92라는 성적이 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나, 추가적인 정보가 필요하다는 점을 강조하고 있어 일부 정보가 누락된 것으로 평가됩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가적인 정보와 조건을 제시하여 혼란을 줄 수 있습니다. 원본 텍스트의 명확한 결론과는 다소 상충하는 부분이 있어 일관성이 떨어진다고 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 화학환경공학부에 지원하기 위한 성적과 관련된 정보를 다루고 있으며, 원본 텍스트의 주제와 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나, 정보의 흐름이 약간 끊기는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 추가적인 정보가 필요하다는 점에서 완전한 정확성은 떨어진다고 평가됩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으나, 추가적인 조건을 제시함으로써 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6871841989327739</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92이라는 성적을 가지고 화학환경공학부 일반학생전형에 지원이 가능한지 판단하기 위해서는 몇 가지 정보가 필요합니다.
+1. **성적 산출방법**: 동의대학교의 정시 모집에서 화학환경공학부의 경우 어떤 방식으로 성적을 산출하는지 확인해야 합니다. 예를 들어, 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사 등과목 중 어느 부분을 반영하며, 각 과목별로 어떻게 점수를 합산하는지 알아보아야 합니다.
+2. **정원 내 모집인원 및 지원자 수**: 화학환경공학부의 정원 내 모집인원이 얼마나 되는지와 실제 지원자의 수가 어느 정도인지 확인해야 합니다. 이 정보는 경쟁률을 예측하는데 중요합니다.
+3. **기타 평가 요소**: 일부 학과에서는 학생부종합전형, 실기/실적 등 다른 평가 요소를 고려할 수 있으므로 이를 포함하여 전반적인 지원 가능성 판단이 필요합니다.
+4. **성적 변동 범위**: 동일한 성적이지만, 실제 모집인원과 지원자 수에 따라 경쟁률이 달라질 수 있으므로, 이 점도 고려해야 합니다.
+주어진 정보만으로는 확정적으로 판단하기 어렵습니다. 위의 요소들을 종합적으로 고려하여 결정하거나, 동의대학교 입학처 웹사이트나 전화로 직접 문의하는 것이 가장 정확한 답변을 얻는 방법입니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 더 자세한 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 정보를 제공하고 있으며, 수능 등급 4.25에 대한 긍정적인 평가를 포함하고 있습니다. 그러나, 원문에서 제공된 구체적인 평균 점수와 비교하여 합격 가능성을 판단하는 데 필요한 추가적인 정보(모집 인원, 지원 인원 등)를 언급하고 있어, 일부 정보가 누락된 것으로 평가됩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일관된 내용을 포함하고 있지만, 원문에서 제시된 구체적인 수치와 비교할 때 다소 모호한 부분이 있습니다. 특히, "평균적인 경쟁률"이라는 표현은 원문에서 제공된 구체적인 수치와 일치하지 않으며, 이로 인해 일관성이 떨어지는 것으로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 수능 등급과 합격 가능성에 대한 정보를 잘 반영하고 있습니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있어 완벽한 유창성에는 미치지 못하는 것으로 평가됩니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나, 일부 문장에서 정보의 흐름이 다소 끊기는 느낌이 있어 완전한 일관성에는 미치지 못하는 것으로 평가됩니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 구체적인 수치와 비교할 때 일부 정보가 누락되거나 모호하게 표현되어 있어 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 긍정적인 평가를 받았습니다. 그러나 일부 세부 사항에서 부족함이 있어 완벽한 점수를 주기에는 아쉬움이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 주제에 적합한 내용을 담고 있습니다. 다만, 일부 표현에서 약간의 의미 차이가 느껴질 수 있어 완벽한 적합성에는 미치지 못하는 것으로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 정보를 전달하고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 완전한 이해 가능성에는 미치지 못하는 것으로 평가됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6623032411772413</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>4.25라는 수능 등급은 동의대학교 화학환경공학부에서 모집하는 공과대학, ICT융합공과대학의 경우 평균적인 경쟁률을 고려하면 충분히 합격 가능성은 있습니다. 하지만 정확한 합격 가능성을 판단하기 위해서는 해당 대학의 2024학년도 수능 일반학생전형의 모집인원, 지원 인원, 경쟁률 등을 확인해야 합니다.
+특히 화학환경공학부는 공학 분야로 전문성과 기초 지식이 요구되는 학과이므로, 수능 등급뿐만 아니라 면접 평가에서도 학업역량과 전공적합성을 중점적으로 평가받을 것입니다.
+따라서 정확한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트나 입학처에 직접 문의하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크에서 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 영화학과의 평균 성적에 대한 정보와 관련된 여러 세부 사항을 제공하지만, 제공된 데이터와 일치하지 않는 점수가 포함되어 있습니다. 예를 들어, "국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.80"이라는 정보는 원본 텍스트에 명시된 평균 점수인 286.77과 다릅니다. 또한, 경쟁률과 충원 합격자 수에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 여러 요소를 포함하고 있습니다. 특히, 평균 점수와 관련된 정보가 다르며, 경쟁률과 충원 합격자 수에 대한 언급은 원본 텍스트에 없는 내용입니다. 이러한 불일치는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 영화학과의 합격 가능성에 대한 논의가 포함되어 있습니다. 그러나 일부 정보는 원본 텍스트와 관련이 없거나 불필요한 세부 사항이 포함되어 있어 완전한 관련성은 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 정보의 흐름이 다소 불연속적입니다. 특히, 원본 텍스트의 정보와의 연결이 부족하여 논리적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히, 평균 점수와 관련된 정보가 잘못되어 있으며, 이는 정확성을 저해합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이는 전체적인 품질을 저하시킵니다. 관련성은 다소 높지만, 다른 차원에서의 부족함이 전체 점수를 낮추고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 질문에 대한 답변을 제공하고 있지만, 일부 정보는 원본 텍스트의 맥락과 일치하지 않거나 부적절합니다. 특히, 경쟁률과 충원 합격자 수에 대한 언급은 원본 텍스트와 관련이 없습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 복잡한 문장은 이해를 어렵게 할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6639157418204319</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2이라는 점수는 현재 제공된 데이터를 바탕으로 판단하기 어렵습니다. 영화학과의 경우, 경쟁률이 2.20이며, 충원 합격자는 6명이고, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.80입니다. 이 점수는 현재 제시된 성적과 비교해볼 수 있습니다.
+현재 제시된 성적이 4.2라면, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균인 303.80보다 높은 점수가 나왔다는 것을 의미합니다. 그러나 영화학과는 경쟁률이 낮고, 충원 합격자 수가 적으므로, 현재 제시된 성적만으로는 확실한 합격 여부를 판단하기 어렵습니다.
+추천드리면, 해당 대학의 입학사정관에게 문의하거나, 제공된 데이터와 자신의 성적을 비교하여 더 정확한 판단을 내리시는 것이 좋겠습니다. 필요하다면, 추가적인 지원 전략이나 준비 방법에 대해 조언을 구하시기 바랍니다.
+더 궁금하신 점이 있으시다면, "https://ipsi. deu. ac. kr/main. do"를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 설명도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 깊으며, 면접 절차에 대한 추가적인 설명도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.9178168154168922</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 통해 면접관들은 수험생들의 지원동기와 학업계획, 학업역량과 전공적합성 등을 종합적으로 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
